--- a/DigitalWebsites/TestData/Global_TestData_Sheet.xlsx
+++ b/DigitalWebsites/TestData/Global_TestData_Sheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" tabRatio="753" firstSheet="13" activeTab="16"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" tabRatio="753" firstSheet="9" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Global" sheetId="4" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1666" uniqueCount="700">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1672" uniqueCount="705">
   <si>
     <t>32256</t>
   </si>
@@ -2112,12 +2112,6 @@
   </si>
   <si>
     <t>32216</t>
-  </si>
-  <si>
-    <t>29615</t>
-  </si>
-  <si>
-    <t>32209</t>
   </si>
   <si>
     <t>vanivathsala.cvr@gmail.com</t>
@@ -2159,6 +2153,27 @@
   </si>
   <si>
     <t>8751865495</t>
+  </si>
+  <si>
+    <t>WD_INVALID_ZIP</t>
+  </si>
+  <si>
+    <t>BL_INVALID_ZIP</t>
+  </si>
+  <si>
+    <t>HV_INVALID_ZIP</t>
+  </si>
+  <si>
+    <t>32204</t>
+  </si>
+  <si>
+    <t>322541</t>
+  </si>
+  <si>
+    <t>296152</t>
+  </si>
+  <si>
+    <t>322093</t>
   </si>
 </sst>
 </file>
@@ -2238,7 +2253,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -2285,12 +2300,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -2433,6 +2461,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -3496,21 +3525,31 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L9"/>
+  <dimension ref="A1:O9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="45.5703125" style="52" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="11" width="9.140625" style="52"/>
-    <col min="12" max="12" width="36.42578125" style="52" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="52"/>
+    <col min="2" max="4" width="9.140625" style="52"/>
+    <col min="5" max="5" width="17" style="52" customWidth="1"/>
+    <col min="6" max="6" width="16.5703125" style="52" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="52" customWidth="1"/>
+    <col min="8" max="8" width="19.5703125" style="52" customWidth="1"/>
+    <col min="9" max="9" width="20.7109375" style="52" customWidth="1"/>
+    <col min="10" max="10" width="21" style="52" customWidth="1"/>
+    <col min="11" max="11" width="24.140625" style="52" customWidth="1"/>
+    <col min="12" max="12" width="18.5703125" style="52" customWidth="1"/>
+    <col min="13" max="13" width="16.42578125" style="52" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="52" customWidth="1"/>
+    <col min="15" max="15" width="15.28515625" style="52" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="52"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="29" t="s">
         <v>35</v>
       </c>
@@ -3541,14 +3580,23 @@
       <c r="J1" s="29" t="s">
         <v>682</v>
       </c>
-      <c r="K1" s="29" t="s">
+      <c r="K1" s="82" t="s">
         <v>274</v>
       </c>
-      <c r="L1" s="29" t="s">
+      <c r="L1" s="82" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M1" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>699</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="33" t="s">
         <v>112</v>
       </c>
@@ -3563,8 +3611,11 @@
       <c r="J2" s="53"/>
       <c r="K2" s="53"/>
       <c r="L2" s="53"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M2" s="53"/>
+      <c r="N2" s="53"/>
+      <c r="O2" s="53"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="33" t="s">
         <v>134</v>
       </c>
@@ -3579,8 +3630,11 @@
       <c r="J3" s="53"/>
       <c r="K3" s="53"/>
       <c r="L3" s="53"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M3" s="53"/>
+      <c r="N3" s="53"/>
+      <c r="O3" s="53"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
         <v>135</v>
       </c>
@@ -3595,8 +3649,11 @@
       <c r="J4" s="53"/>
       <c r="K4" s="53"/>
       <c r="L4" s="53"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M4" s="53"/>
+      <c r="N4" s="53"/>
+      <c r="O4" s="53"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
         <v>683</v>
       </c>
@@ -3616,34 +3673,39 @@
       <c r="J5" s="53"/>
       <c r="K5" s="53"/>
       <c r="L5" s="53"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M5" s="53"/>
+      <c r="N5" s="53"/>
+      <c r="O5" s="53"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="B6" s="53"/>
-      <c r="C6" s="53"/>
-      <c r="D6" s="53"/>
+      <c r="B6" s="30"/>
+      <c r="C6" s="30"/>
       <c r="E6" s="53"/>
       <c r="F6" s="53"/>
       <c r="G6" s="53"/>
       <c r="H6" s="30" t="s">
-        <v>0</v>
+        <v>701</v>
       </c>
       <c r="I6" s="30" t="s">
+        <v>684</v>
+      </c>
+      <c r="J6" s="30" t="s">
+        <v>685</v>
+      </c>
+      <c r="K6" s="30" t="s">
         <v>686</v>
-      </c>
-      <c r="J6" s="30" t="s">
-        <v>687</v>
-      </c>
-      <c r="K6" s="30" t="s">
-        <v>688</v>
       </c>
       <c r="L6" s="30" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M6" s="53"/>
+      <c r="N6" s="53"/>
+      <c r="O6" s="53"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
         <v>138</v>
       </c>
@@ -3651,21 +3713,24 @@
       <c r="C7" s="53"/>
       <c r="D7" s="53"/>
       <c r="E7" s="30" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="F7" s="30" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="G7" s="30" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="H7" s="53"/>
       <c r="I7" s="53"/>
       <c r="J7" s="53"/>
       <c r="K7" s="53"/>
       <c r="L7" s="53"/>
-    </row>
-    <row r="8" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="M7" s="53"/>
+      <c r="N7" s="53"/>
+      <c r="O7" s="53"/>
+    </row>
+    <row r="8" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
         <v>136</v>
       </c>
@@ -3680,8 +3745,17 @@
       <c r="J8" s="53"/>
       <c r="K8" s="53"/>
       <c r="L8" s="53"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M8" s="30" t="s">
+        <v>702</v>
+      </c>
+      <c r="N8" s="30" t="s">
+        <v>703</v>
+      </c>
+      <c r="O8" s="30" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
         <v>137</v>
       </c>
@@ -3700,6 +3774,9 @@
       <c r="L9" s="30" t="s">
         <v>13</v>
       </c>
+      <c r="M9" s="53"/>
+      <c r="N9" s="53"/>
+      <c r="O9" s="53"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3907,7 +3984,7 @@
         <v>38</v>
       </c>
       <c r="O1" s="57" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="P1" s="57" t="s">
         <v>50</v>
@@ -4456,10 +4533,10 @@
       <c r="L17" s="54"/>
       <c r="M17" s="54"/>
       <c r="N17" s="54" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="O17" s="54" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="P17" s="57"/>
       <c r="Q17" s="56"/>
@@ -4499,10 +4576,10 @@
       <c r="L18" s="54"/>
       <c r="M18" s="54"/>
       <c r="N18" s="54" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="O18" s="54" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="P18" s="57"/>
       <c r="Q18" s="56"/>
@@ -6740,7 +6817,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
@@ -8215,10 +8292,10 @@
         <v>584</v>
       </c>
       <c r="H1" s="29" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="I1" s="29" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="J1" s="4" t="s">
         <v>50</v>
@@ -8431,10 +8508,10 @@
       <c r="F10" s="33"/>
       <c r="G10" s="33"/>
       <c r="H10" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="I10" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="J10" s="4"/>
     </row>

--- a/DigitalWebsites/TestData/Global_TestData_Sheet.xlsx
+++ b/DigitalWebsites/TestData/Global_TestData_Sheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" tabRatio="753" firstSheet="9" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" tabRatio="753"/>
   </bookViews>
   <sheets>
     <sheet name="Global" sheetId="4" r:id="rId1"/>
@@ -2745,8 +2745,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2812,10 +2812,10 @@
         <v>239</v>
       </c>
       <c r="C3" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="8" t="s">
         <v>28</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>19</v>
       </c>
       <c r="E3" s="7" t="s">
         <v>28</v>
@@ -3527,7 +3527,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>

--- a/DigitalWebsites/TestData/Global_TestData_Sheet.xlsx
+++ b/DigitalWebsites/TestData/Global_TestData_Sheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" tabRatio="753"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14730" windowHeight="5985" tabRatio="753"/>
   </bookViews>
   <sheets>
     <sheet name="Global" sheetId="4" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1672" uniqueCount="705">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1677" uniqueCount="709">
   <si>
     <t>32256</t>
   </si>
@@ -2174,6 +2174,18 @@
   </si>
   <si>
     <t>322093</t>
+  </si>
+  <si>
+    <t>ValidNPACode_PhoneNumber</t>
+  </si>
+  <si>
+    <t>InvalidNPACode_PhoneNumber</t>
+  </si>
+  <si>
+    <t>InvalidCountryCode_PhoneNumber</t>
+  </si>
+  <si>
+    <t>5035019987</t>
   </si>
 </sst>
 </file>
@@ -2318,7 +2330,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -2462,6 +2474,8 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2746,7 +2760,7 @@
   <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="C2" sqref="C2:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2789,10 +2803,10 @@
         <v>238</v>
       </c>
       <c r="C2" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="8" t="s">
         <v>28</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>19</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>28</v>
@@ -6257,10 +6271,10 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q24"/>
+  <dimension ref="A1:S24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6272,10 +6286,12 @@
     <col min="10" max="14" width="9.140625" style="71" collapsed="1"/>
     <col min="15" max="15" width="11" style="71" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="16" max="16" width="9.140625" style="72" collapsed="1"/>
-    <col min="17" max="16384" width="9.140625" style="71" collapsed="1"/>
+    <col min="17" max="17" width="11" style="47" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="11" style="47" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="71" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="69" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" s="69" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A1" s="67" t="s">
         <v>35</v>
       </c>
@@ -6324,29 +6340,86 @@
       <c r="P1" s="68" t="s">
         <v>270</v>
       </c>
-      <c r="Q1" s="68" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q1" s="57" t="s">
+        <v>705</v>
+      </c>
+      <c r="R1" s="57" t="s">
+        <v>706</v>
+      </c>
+      <c r="S1" s="57" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="70" t="s">
         <v>160</v>
       </c>
-      <c r="Q2" s="68"/>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B2" s="74"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="74"/>
+      <c r="G2" s="74"/>
+      <c r="H2" s="74"/>
+      <c r="I2" s="74"/>
+      <c r="J2" s="74"/>
+      <c r="K2" s="74"/>
+      <c r="L2" s="74"/>
+      <c r="M2" s="74"/>
+      <c r="N2" s="74"/>
+      <c r="O2" s="74"/>
+      <c r="P2" s="75"/>
+      <c r="Q2" s="83"/>
+      <c r="R2" s="55"/>
+      <c r="S2" s="55"/>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="70" t="s">
         <v>161</v>
       </c>
-      <c r="Q3" s="68"/>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B3" s="74"/>
+      <c r="C3" s="74"/>
+      <c r="D3" s="74"/>
+      <c r="E3" s="74"/>
+      <c r="F3" s="74"/>
+      <c r="G3" s="74"/>
+      <c r="H3" s="74"/>
+      <c r="I3" s="74"/>
+      <c r="J3" s="74"/>
+      <c r="K3" s="74"/>
+      <c r="L3" s="74"/>
+      <c r="M3" s="74"/>
+      <c r="N3" s="74"/>
+      <c r="O3" s="74"/>
+      <c r="P3" s="75"/>
+      <c r="Q3" s="83"/>
+      <c r="R3" s="55"/>
+      <c r="S3" s="55"/>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="70" t="s">
         <v>162</v>
       </c>
-      <c r="Q4" s="68"/>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B4" s="74"/>
+      <c r="C4" s="74"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="74"/>
+      <c r="F4" s="74"/>
+      <c r="G4" s="74"/>
+      <c r="H4" s="74"/>
+      <c r="I4" s="74"/>
+      <c r="J4" s="74"/>
+      <c r="K4" s="74"/>
+      <c r="L4" s="74"/>
+      <c r="M4" s="74"/>
+      <c r="N4" s="74"/>
+      <c r="O4" s="74"/>
+      <c r="P4" s="75"/>
+      <c r="Q4" s="83"/>
+      <c r="R4" s="55"/>
+      <c r="S4" s="55"/>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="70" t="s">
         <v>163</v>
       </c>
@@ -6389,39 +6462,126 @@
         <v>540</v>
       </c>
       <c r="P5" s="54"/>
-      <c r="Q5" s="68"/>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q5" s="83"/>
+      <c r="R5" s="55"/>
+      <c r="S5" s="55"/>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="70" t="s">
         <v>541</v>
       </c>
-      <c r="Q6" s="68"/>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B6" s="74"/>
+      <c r="C6" s="74"/>
+      <c r="D6" s="74"/>
+      <c r="E6" s="74"/>
+      <c r="F6" s="74"/>
+      <c r="G6" s="74"/>
+      <c r="H6" s="74"/>
+      <c r="I6" s="74"/>
+      <c r="J6" s="74"/>
+      <c r="K6" s="74"/>
+      <c r="L6" s="74"/>
+      <c r="M6" s="74"/>
+      <c r="N6" s="74"/>
+      <c r="O6" s="74"/>
+      <c r="P6" s="75"/>
+      <c r="Q6" s="83"/>
+      <c r="R6" s="55"/>
+      <c r="S6" s="55"/>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="70" t="s">
         <v>164</v>
       </c>
-      <c r="Q7" s="68"/>
-    </row>
-    <row r="8" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+      <c r="B7" s="74"/>
+      <c r="C7" s="74"/>
+      <c r="D7" s="74"/>
+      <c r="E7" s="74"/>
+      <c r="F7" s="74"/>
+      <c r="G7" s="74"/>
+      <c r="H7" s="74"/>
+      <c r="I7" s="74"/>
+      <c r="J7" s="74"/>
+      <c r="K7" s="74"/>
+      <c r="L7" s="74"/>
+      <c r="M7" s="74"/>
+      <c r="N7" s="74"/>
+      <c r="O7" s="74"/>
+      <c r="P7" s="75"/>
+      <c r="Q7" s="83"/>
+      <c r="R7" s="55"/>
+      <c r="S7" s="55"/>
+    </row>
+    <row r="8" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="70" t="s">
         <v>165</v>
       </c>
-      <c r="Q8" s="68"/>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B8" s="74"/>
+      <c r="C8" s="74"/>
+      <c r="D8" s="74"/>
+      <c r="E8" s="74"/>
+      <c r="F8" s="74"/>
+      <c r="G8" s="74"/>
+      <c r="H8" s="74"/>
+      <c r="I8" s="74"/>
+      <c r="J8" s="74"/>
+      <c r="K8" s="74"/>
+      <c r="L8" s="74"/>
+      <c r="M8" s="74"/>
+      <c r="N8" s="74"/>
+      <c r="O8" s="74"/>
+      <c r="P8" s="75"/>
+      <c r="Q8" s="83"/>
+      <c r="R8" s="55"/>
+      <c r="S8" s="55"/>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="70" t="s">
         <v>166</v>
       </c>
-      <c r="Q9" s="68"/>
-    </row>
-    <row r="10" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+      <c r="B9" s="74"/>
+      <c r="C9" s="74"/>
+      <c r="D9" s="74"/>
+      <c r="E9" s="74"/>
+      <c r="F9" s="74"/>
+      <c r="G9" s="74"/>
+      <c r="H9" s="74"/>
+      <c r="I9" s="74"/>
+      <c r="J9" s="74"/>
+      <c r="K9" s="74"/>
+      <c r="L9" s="74"/>
+      <c r="M9" s="74"/>
+      <c r="N9" s="74"/>
+      <c r="O9" s="74"/>
+      <c r="P9" s="75"/>
+      <c r="Q9" s="83"/>
+      <c r="R9" s="55"/>
+      <c r="S9" s="55"/>
+    </row>
+    <row r="10" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="70" t="s">
         <v>167</v>
       </c>
-      <c r="Q10" s="68"/>
-    </row>
-    <row r="11" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+      <c r="B10" s="74"/>
+      <c r="C10" s="74"/>
+      <c r="D10" s="74"/>
+      <c r="E10" s="74"/>
+      <c r="F10" s="74"/>
+      <c r="G10" s="74"/>
+      <c r="H10" s="74"/>
+      <c r="I10" s="74"/>
+      <c r="J10" s="74"/>
+      <c r="K10" s="74"/>
+      <c r="L10" s="74"/>
+      <c r="M10" s="74"/>
+      <c r="N10" s="74"/>
+      <c r="O10" s="74"/>
+      <c r="P10" s="75"/>
+      <c r="Q10" s="83"/>
+      <c r="R10" s="55"/>
+      <c r="S10" s="55"/>
+    </row>
+    <row r="11" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="70" t="s">
         <v>168</v>
       </c>
@@ -6442,75 +6602,269 @@
       <c r="N11" s="74"/>
       <c r="O11" s="74"/>
       <c r="P11" s="75"/>
-      <c r="Q11" s="68"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q11" s="83"/>
+      <c r="R11" s="55"/>
+      <c r="S11" s="55"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="70" t="s">
         <v>169</v>
       </c>
-      <c r="Q12" s="68"/>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B12" s="74"/>
+      <c r="C12" s="74"/>
+      <c r="D12" s="74"/>
+      <c r="E12" s="74"/>
+      <c r="F12" s="74"/>
+      <c r="G12" s="74"/>
+      <c r="H12" s="74"/>
+      <c r="I12" s="74"/>
+      <c r="J12" s="74"/>
+      <c r="K12" s="74"/>
+      <c r="L12" s="74"/>
+      <c r="M12" s="74"/>
+      <c r="N12" s="74"/>
+      <c r="O12" s="74"/>
+      <c r="P12" s="75"/>
+      <c r="Q12" s="83"/>
+      <c r="R12" s="55"/>
+      <c r="S12" s="55"/>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="70" t="s">
         <v>170</v>
       </c>
-      <c r="Q13" s="68"/>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B13" s="74"/>
+      <c r="C13" s="74"/>
+      <c r="D13" s="74"/>
+      <c r="E13" s="74"/>
+      <c r="F13" s="74"/>
+      <c r="G13" s="74"/>
+      <c r="H13" s="74"/>
+      <c r="I13" s="74"/>
+      <c r="J13" s="74"/>
+      <c r="K13" s="74"/>
+      <c r="L13" s="74"/>
+      <c r="M13" s="74"/>
+      <c r="N13" s="74"/>
+      <c r="O13" s="74"/>
+      <c r="P13" s="75"/>
+      <c r="Q13" s="83"/>
+      <c r="R13" s="55"/>
+      <c r="S13" s="55"/>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="70" t="s">
         <v>171</v>
       </c>
-      <c r="Q14" s="68"/>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B14" s="74"/>
+      <c r="C14" s="74"/>
+      <c r="D14" s="74"/>
+      <c r="E14" s="74"/>
+      <c r="F14" s="74"/>
+      <c r="G14" s="74"/>
+      <c r="H14" s="74"/>
+      <c r="I14" s="74"/>
+      <c r="J14" s="74"/>
+      <c r="K14" s="74"/>
+      <c r="L14" s="74"/>
+      <c r="M14" s="74"/>
+      <c r="N14" s="74"/>
+      <c r="O14" s="74"/>
+      <c r="P14" s="75"/>
+      <c r="Q14" s="83"/>
+      <c r="R14" s="55"/>
+      <c r="S14" s="55"/>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="70" t="s">
         <v>172</v>
       </c>
-      <c r="Q15" s="68"/>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B15" s="74"/>
+      <c r="C15" s="74"/>
+      <c r="D15" s="74"/>
+      <c r="E15" s="74"/>
+      <c r="F15" s="74"/>
+      <c r="G15" s="74"/>
+      <c r="H15" s="74"/>
+      <c r="I15" s="74"/>
+      <c r="J15" s="74"/>
+      <c r="K15" s="74"/>
+      <c r="L15" s="74"/>
+      <c r="M15" s="74"/>
+      <c r="N15" s="74"/>
+      <c r="O15" s="74"/>
+      <c r="P15" s="75"/>
+      <c r="Q15" s="83"/>
+      <c r="R15" s="55"/>
+      <c r="S15" s="55"/>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="70" t="s">
         <v>173</v>
       </c>
-      <c r="Q16" s="68"/>
-    </row>
-    <row r="17" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+      <c r="B16" s="74"/>
+      <c r="C16" s="74"/>
+      <c r="D16" s="74"/>
+      <c r="E16" s="74"/>
+      <c r="F16" s="74"/>
+      <c r="G16" s="74"/>
+      <c r="H16" s="74"/>
+      <c r="I16" s="74"/>
+      <c r="J16" s="74"/>
+      <c r="K16" s="74"/>
+      <c r="L16" s="74"/>
+      <c r="M16" s="74"/>
+      <c r="N16" s="74"/>
+      <c r="O16" s="74"/>
+      <c r="P16" s="75"/>
+      <c r="Q16" s="84" t="s">
+        <v>708</v>
+      </c>
+      <c r="R16" s="54"/>
+      <c r="S16" s="54"/>
+    </row>
+    <row r="17" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="70" t="s">
         <v>174</v>
       </c>
-      <c r="Q17" s="68"/>
-    </row>
-    <row r="18" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+      <c r="B17" s="74"/>
+      <c r="C17" s="74"/>
+      <c r="D17" s="74"/>
+      <c r="E17" s="74"/>
+      <c r="F17" s="74"/>
+      <c r="G17" s="74"/>
+      <c r="H17" s="74"/>
+      <c r="I17" s="74"/>
+      <c r="J17" s="74"/>
+      <c r="K17" s="74"/>
+      <c r="L17" s="74"/>
+      <c r="M17" s="74"/>
+      <c r="N17" s="74"/>
+      <c r="O17" s="74"/>
+      <c r="P17" s="75"/>
+      <c r="Q17" s="83"/>
+      <c r="R17" s="55"/>
+      <c r="S17" s="55"/>
+    </row>
+    <row r="18" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="70" t="s">
         <v>175</v>
       </c>
-      <c r="Q18" s="68"/>
-    </row>
-    <row r="19" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+      <c r="B18" s="74"/>
+      <c r="C18" s="74"/>
+      <c r="D18" s="74"/>
+      <c r="E18" s="74"/>
+      <c r="F18" s="74"/>
+      <c r="G18" s="74"/>
+      <c r="H18" s="74"/>
+      <c r="I18" s="74"/>
+      <c r="J18" s="74"/>
+      <c r="K18" s="74"/>
+      <c r="L18" s="74"/>
+      <c r="M18" s="74"/>
+      <c r="N18" s="74"/>
+      <c r="O18" s="74"/>
+      <c r="P18" s="75"/>
+      <c r="Q18" s="83"/>
+      <c r="R18" s="55"/>
+      <c r="S18" s="55"/>
+    </row>
+    <row r="19" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="70" t="s">
         <v>176</v>
       </c>
-      <c r="Q19" s="68"/>
-    </row>
-    <row r="20" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+      <c r="B19" s="74"/>
+      <c r="C19" s="74"/>
+      <c r="D19" s="74"/>
+      <c r="E19" s="74"/>
+      <c r="F19" s="74"/>
+      <c r="G19" s="74"/>
+      <c r="H19" s="74"/>
+      <c r="I19" s="74"/>
+      <c r="J19" s="74"/>
+      <c r="K19" s="74"/>
+      <c r="L19" s="74"/>
+      <c r="M19" s="74"/>
+      <c r="N19" s="74"/>
+      <c r="O19" s="74"/>
+      <c r="P19" s="75"/>
+      <c r="R19" s="48" t="s">
+        <v>610</v>
+      </c>
+      <c r="S19" s="48" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="70" t="s">
         <v>177</v>
       </c>
-      <c r="Q20" s="68"/>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B20" s="74"/>
+      <c r="C20" s="74"/>
+      <c r="D20" s="74"/>
+      <c r="E20" s="74"/>
+      <c r="F20" s="74"/>
+      <c r="G20" s="74"/>
+      <c r="H20" s="74"/>
+      <c r="I20" s="74"/>
+      <c r="J20" s="74"/>
+      <c r="K20" s="74"/>
+      <c r="L20" s="74"/>
+      <c r="M20" s="74"/>
+      <c r="N20" s="74"/>
+      <c r="O20" s="74"/>
+      <c r="P20" s="75"/>
+      <c r="Q20" s="83"/>
+      <c r="R20" s="55"/>
+      <c r="S20" s="55"/>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" s="70" t="s">
         <v>129</v>
       </c>
-      <c r="Q21" s="68"/>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B21" s="74"/>
+      <c r="C21" s="74"/>
+      <c r="D21" s="74"/>
+      <c r="E21" s="74"/>
+      <c r="F21" s="74"/>
+      <c r="G21" s="74"/>
+      <c r="H21" s="74"/>
+      <c r="I21" s="74"/>
+      <c r="J21" s="74"/>
+      <c r="K21" s="74"/>
+      <c r="L21" s="74"/>
+      <c r="M21" s="74"/>
+      <c r="N21" s="74"/>
+      <c r="O21" s="74"/>
+      <c r="P21" s="75"/>
+      <c r="Q21" s="83"/>
+      <c r="R21" s="55"/>
+      <c r="S21" s="55"/>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" s="70" t="s">
         <v>178</v>
       </c>
-      <c r="Q22" s="68"/>
-    </row>
-    <row r="23" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+      <c r="B22" s="74"/>
+      <c r="C22" s="74"/>
+      <c r="D22" s="74"/>
+      <c r="E22" s="74"/>
+      <c r="F22" s="74"/>
+      <c r="G22" s="74"/>
+      <c r="H22" s="74"/>
+      <c r="I22" s="74"/>
+      <c r="J22" s="74"/>
+      <c r="K22" s="74"/>
+      <c r="L22" s="74"/>
+      <c r="M22" s="74"/>
+      <c r="N22" s="74"/>
+      <c r="O22" s="74"/>
+      <c r="P22" s="75"/>
+      <c r="Q22" s="83"/>
+      <c r="R22" s="55"/>
+      <c r="S22" s="55"/>
+    </row>
+    <row r="23" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="70" t="s">
         <v>179</v>
       </c>
@@ -6543,7 +6897,7 @@
       <c r="L23" s="74" t="s">
         <v>20</v>
       </c>
-      <c r="M23" s="71" t="s">
+      <c r="M23" s="74" t="s">
         <v>493</v>
       </c>
       <c r="N23" s="76" t="s">
@@ -6553,13 +6907,17 @@
         <v>545</v>
       </c>
       <c r="P23" s="76"/>
-      <c r="Q23" s="68"/>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q23" s="83"/>
+      <c r="R23" s="55"/>
+      <c r="S23" s="55"/>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" s="70" t="s">
         <v>180</v>
       </c>
-      <c r="Q24" s="68"/>
+      <c r="Q24" s="55"/>
+      <c r="R24" s="55"/>
+      <c r="S24" s="55"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DigitalWebsites/TestData/Global_TestData_Sheet.xlsx
+++ b/DigitalWebsites/TestData/Global_TestData_Sheet.xlsx
@@ -1,49 +1,49 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14730" windowHeight="5985" tabRatio="753"/>
+    <workbookView tabRatio="753" windowHeight="5985" windowWidth="14730" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Global" sheetId="4" r:id="rId1"/>
-    <sheet name="SoftLogin" sheetId="6" r:id="rId2"/>
-    <sheet name="Logout" sheetId="13" r:id="rId3"/>
-    <sheet name="Forgot_Password_Page" sheetId="14" r:id="rId4"/>
-    <sheet name="HardLogin_Loggedin_Account" sheetId="15" r:id="rId5"/>
-    <sheet name="Reset_PIN" sheetId="16" r:id="rId6"/>
-    <sheet name="Reset_Password" sheetId="12" r:id="rId7"/>
-    <sheet name="Fully_Enrolled_Customers_Flow" sheetId="5" r:id="rId8"/>
-    <sheet name="Pre_Enrolled_Customers_Flow" sheetId="3" r:id="rId9"/>
-    <sheet name="Store_Locator" sheetId="17" r:id="rId10"/>
-    <sheet name="Static_Infobar_loggedin_Users" sheetId="18" r:id="rId11"/>
-    <sheet name="PII_Validation" sheetId="19" r:id="rId12"/>
-    <sheet name="Enrollment_Step_Counter" sheetId="20" r:id="rId13"/>
-    <sheet name="Set_Pin_PW_in_Security_Info" sheetId="21" r:id="rId14"/>
-    <sheet name="Account_Setup_page" sheetId="22" r:id="rId15"/>
-    <sheet name="Email_Verification" sheetId="25" r:id="rId16"/>
-    <sheet name="Persist_Data_During_Enrollment" sheetId="26" r:id="rId17"/>
-    <sheet name="Fuelperks_Locator_Page" sheetId="27" r:id="rId18"/>
-    <sheet name="Account_Lookup" sheetId="28" r:id="rId19"/>
-    <sheet name="LoggedIn_for_Rewards_Section" sheetId="29" r:id="rId20"/>
-    <sheet name="Updated_HomePage" sheetId="30" r:id="rId21"/>
-    <sheet name="Never_Miss_A_Deal" sheetId="24" r:id="rId22"/>
-    <sheet name="User_Status_After_SoftLogin" sheetId="31" r:id="rId23"/>
-    <sheet name="Login_Or_Signup_Global_Nav" sheetId="32" r:id="rId24"/>
-    <sheet name="Loggedout_Rewards_Page" sheetId="33" r:id="rId25"/>
-    <sheet name="Enrollment_LandingPage" sheetId="34" r:id="rId26"/>
-    <sheet name="Enrollment_Status_Directions" sheetId="35" r:id="rId27"/>
-    <sheet name="Contact_Us" sheetId="36" r:id="rId28"/>
-    <sheet name="Global_Nav_Update" sheetId="37" r:id="rId29"/>
-    <sheet name="Update_Footer" sheetId="38" r:id="rId30"/>
-    <sheet name="Digital_Coupons" sheetId="39" r:id="rId31"/>
-    <sheet name="Shopping_List" sheetId="40" r:id="rId32"/>
-    <sheet name="Weekly_Ad" sheetId="41" r:id="rId33"/>
+    <sheet name="Global" r:id="rId1" sheetId="4"/>
+    <sheet name="SoftLogin" r:id="rId2" sheetId="6"/>
+    <sheet name="Logout" r:id="rId3" sheetId="13"/>
+    <sheet name="Forgot_Password_Page" r:id="rId4" sheetId="14"/>
+    <sheet name="HardLogin_Loggedin_Account" r:id="rId5" sheetId="15"/>
+    <sheet name="Reset_PIN" r:id="rId6" sheetId="16"/>
+    <sheet name="Reset_Password" r:id="rId7" sheetId="12"/>
+    <sheet name="Fully_Enrolled_Customers_Flow" r:id="rId8" sheetId="5"/>
+    <sheet name="Pre_Enrolled_Customers_Flow" r:id="rId9" sheetId="3"/>
+    <sheet name="Store_Locator" r:id="rId10" sheetId="17"/>
+    <sheet name="Static_Infobar_loggedin_Users" r:id="rId11" sheetId="18"/>
+    <sheet name="PII_Validation" r:id="rId12" sheetId="19"/>
+    <sheet name="Enrollment_Step_Counter" r:id="rId13" sheetId="20"/>
+    <sheet name="Set_Pin_PW_in_Security_Info" r:id="rId14" sheetId="21"/>
+    <sheet name="Account_Setup_page" r:id="rId15" sheetId="22"/>
+    <sheet name="Email_Verification" r:id="rId16" sheetId="25"/>
+    <sheet name="Persist_Data_During_Enrollment" r:id="rId17" sheetId="26"/>
+    <sheet name="Fuelperks_Locator_Page" r:id="rId18" sheetId="27"/>
+    <sheet name="Account_Lookup" r:id="rId19" sheetId="28"/>
+    <sheet name="LoggedIn_for_Rewards_Section" r:id="rId20" sheetId="29"/>
+    <sheet name="Updated_HomePage" r:id="rId21" sheetId="30"/>
+    <sheet name="Never_Miss_A_Deal" r:id="rId22" sheetId="24"/>
+    <sheet name="User_Status_After_SoftLogin" r:id="rId23" sheetId="31"/>
+    <sheet name="Login_Or_Signup_Global_Nav" r:id="rId24" sheetId="32"/>
+    <sheet name="Loggedout_Rewards_Page" r:id="rId25" sheetId="33"/>
+    <sheet name="Enrollment_LandingPage" r:id="rId26" sheetId="34"/>
+    <sheet name="Enrollment_Status_Directions" r:id="rId27" sheetId="35"/>
+    <sheet name="Contact_Us" r:id="rId28" sheetId="36"/>
+    <sheet name="Global_Nav_Update" r:id="rId29" sheetId="37"/>
+    <sheet name="Update_Footer" r:id="rId30" sheetId="38"/>
+    <sheet name="Digital_Coupons" r:id="rId31" sheetId="39"/>
+    <sheet name="Shopping_List" r:id="rId32" sheetId="40"/>
+    <sheet name="Weekly_Ad" r:id="rId33" sheetId="41"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1677" uniqueCount="709">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1693" uniqueCount="715">
   <si>
     <t>32256</t>
   </si>
@@ -2187,11 +2187,44 @@
   <si>
     <t>5035019987</t>
   </si>
+  <si>
+    <t>Devour Entrées, Kraft Macaroni &amp; Cheese Frozen Dinners or TGI Fridays Appetizers buy 2 get 1 free equal or lesser value SAVE UP TO $449 ON 3
+When you buy any 3
+MIX &amp; MATCH
+76-12 oz
+EQUAL OR LESSER VALUE</t>
+  </si>
+  <si>
+    <t>Michael Angelo's Family Size Entrées 2$10 SAVE UP TO $598 ON 2
+20-32 oz</t>
+  </si>
+  <si>
+    <t>Simply Smoothie 2$6 SAVE UP TO $198 ON 2
+32 oz</t>
+  </si>
+  <si>
+    <t>Dannon Oikos or Light &amp; Fit Greek Yogurt or Activia or Danimals Smoothie 2$10 SAVE UP TO $298 ON 2
+Dannon Oikos or Light &amp; Fit Greek Yogurt
+Quart or Activia or Danimals Smoothie
+12 count or YoCrunch 8 count</t>
+  </si>
+  <si>
+    <t>Alexia Frozen Vegetables, Healthy Choice Power Bowls or PF Chang's Noodle Bowls 2$7 SAVE UP TO $198 ON 2
+MIX &amp; MATCH
+Alexia Frozen Vegetables 12 oz,
+Healthy Choice Power Bowls 925-975 oz or
+PF Chang's Noodle Bowls 11 oz</t>
+  </si>
+  <si>
+    <t>Florida's Natural Orange Juice 2$6 SAVE UP TO $178 ON 2
+52 oz</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2327,162 +2360,162 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="85">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="1" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" quotePrefix="1" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="1" fillId="2" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" borderId="1" fillId="0" fontId="1" numFmtId="0" quotePrefix="1" xfId="1"/>
+    <xf applyBorder="1" applyFill="1" borderId="1" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="1" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="1" fillId="3" fontId="0" numFmtId="0" quotePrefix="1" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="1" fillId="5" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="1" numFmtId="0" quotePrefix="1" xfId="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="6" fontId="2" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="7" fontId="2" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyBorder="1" applyFill="1" borderId="1" fillId="6" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="2" numFmtId="1" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="1" fillId="8" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="8" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="1" fillId="8" borderId="1" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="1" numFmtId="1" xfId="1"/>
+    <xf applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="1" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="1" fillId="8" fontId="1" numFmtId="1" xfId="1"/>
+    <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="1" fillId="8" fontId="0" numFmtId="1" quotePrefix="1" xfId="0"/>
+    <xf applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="1" quotePrefix="1" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="1" fillId="8" fontId="1" numFmtId="1" quotePrefix="1" xfId="1"/>
+    <xf applyBorder="1" applyFill="1" borderId="1" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="1" fillId="2" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="2" numFmtId="1" quotePrefix="1" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyBorder="1" applyFill="1" borderId="1" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" quotePrefix="1" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="1" fillId="2" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="1" fillId="2" fontId="0" numFmtId="1" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="1" fillId="2" fontId="0" numFmtId="1" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf applyBorder="1" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="1"/>
+    <xf applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" quotePrefix="1" xfId="0"/>
+    <xf applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="1" fillId="2" fontId="0" numFmtId="49" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="1" fillId="2" fontId="0" numFmtId="49" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="2" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
+    <xf applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="1" numFmtId="1" quotePrefix="1" xfId="1"/>
+    <xf applyFill="1" applyNumberFormat="1" borderId="0" fillId="2" fontId="0" numFmtId="49" xfId="0"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="2" numFmtId="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="1"/>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="2" numFmtId="49" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="6" fontId="2" numFmtId="49" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" quotePrefix="1" xfId="0"/>
+    <xf applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="1" fillId="2" fontId="0" numFmtId="49" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="1" fillId="2" fontId="0" numFmtId="49" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="2" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="1" numFmtId="49" xfId="1"/>
+    <xf applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="8" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="8" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="1" fillId="8" fontId="0" numFmtId="49" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="1" fillId="8" fontId="0" numFmtId="49" quotePrefix="1" xfId="0"/>
+    <xf applyFill="1" applyNumberFormat="1" borderId="0" fillId="8" fontId="0" numFmtId="49" xfId="0"/>
+    <xf applyFill="1" applyNumberFormat="1" borderId="0" fillId="8" fontId="0" numFmtId="49" quotePrefix="1" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="1" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="1" fillId="2" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyFill="1" applyNumberFormat="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" quotePrefix="1" xfId="0"/>
+    <xf applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="0" quotePrefix="1" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" quotePrefix="1" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="3" fillId="2" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" quotePrefix="1" xfId="0"/>
+    <xf applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="1" numFmtId="49" quotePrefix="1" xfId="1"/>
+    <xf applyBorder="1" applyFill="1" borderId="2" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="4" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyNumberFormat="1" borderId="3" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
+    <xf applyBorder="1" applyNumberFormat="1" borderId="3" fillId="0" fontId="0" numFmtId="49" quotePrefix="1" xfId="0"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -2499,10 +2532,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -2537,7 +2570,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -2572,7 +2605,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -2666,21 +2699,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -2697,7 +2730,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -2749,15 +2782,15 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G33"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C2" sqref="C2:D2"/>
@@ -2765,14 +2798,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="40.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="44.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="35.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="40.7109375" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="44.42578125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="12.7109375" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="15.0" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="35.5703125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="1" s="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>30</v>
       </c>
@@ -3532,14 +3565,14 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
@@ -3547,23 +3580,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="45.5703125" style="52" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="4" width="9.140625" style="52"/>
-    <col min="5" max="5" width="17" style="52" customWidth="1"/>
-    <col min="6" max="6" width="16.5703125" style="52" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="52" customWidth="1"/>
-    <col min="8" max="8" width="19.5703125" style="52" customWidth="1"/>
-    <col min="9" max="9" width="20.7109375" style="52" customWidth="1"/>
-    <col min="10" max="10" width="21" style="52" customWidth="1"/>
-    <col min="11" max="11" width="24.140625" style="52" customWidth="1"/>
-    <col min="12" max="12" width="18.5703125" style="52" customWidth="1"/>
-    <col min="13" max="13" width="16.42578125" style="52" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="52" customWidth="1"/>
-    <col min="15" max="15" width="15.28515625" style="52" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="52"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="52" width="45.5703125" collapsed="true"/>
+    <col min="2" max="4" style="52" width="9.140625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="52" width="17.0" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="52" width="16.5703125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="52" width="14.5703125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="52" width="19.5703125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="52" width="20.7109375" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="52" width="21.0" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="52" width="24.140625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" style="52" width="18.5703125" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" style="52" width="16.42578125" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" style="52" width="14.85546875" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" style="52" width="15.28515625" collapsed="true"/>
+    <col min="16" max="16384" style="52" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="1" s="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="29" t="s">
         <v>35</v>
       </c>
@@ -3744,7 +3777,7 @@
       <c r="N7" s="53"/>
       <c r="O7" s="53"/>
     </row>
-    <row r="8" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
         <v>136</v>
       </c>
@@ -3793,14 +3826,14 @@
       <c r="O9" s="53"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
@@ -3808,16 +3841,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="45.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="24.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="17.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="24" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="19.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="15.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="45.5703125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="24.140625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="17.28515625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="24.0" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="19.28515625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="15.7109375" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="1" s="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>35</v>
       </c>
@@ -3855,7 +3888,7 @@
       <c r="F2" s="15"/>
       <c r="G2" s="4"/>
     </row>
-    <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>271</v>
       </c>
@@ -3870,7 +3903,7 @@
       <c r="F3" s="15"/>
       <c r="G3" s="4"/>
     </row>
-    <row r="4" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
         <v>272</v>
       </c>
@@ -3904,7 +3937,7 @@
       <c r="F5" s="15"/>
       <c r="G5" s="4"/>
     </row>
-    <row r="6" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
         <v>279</v>
       </c>
@@ -3921,18 +3954,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1"/>
-    <hyperlink ref="D3" r:id="rId2"/>
-    <hyperlink ref="D4" r:id="rId3"/>
+    <hyperlink r:id="rId1" ref="D2"/>
+    <hyperlink r:id="rId2" ref="D3"/>
+    <hyperlink r:id="rId3" ref="D4"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9" r:id="rId4"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:R20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
@@ -3940,21 +3973,21 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="95" style="52" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="9.140625" style="52"/>
-    <col min="3" max="3" width="17.28515625" style="52" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="8.7109375" style="52" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="9" width="9.140625" style="52"/>
-    <col min="10" max="10" width="15.140625" style="52" customWidth="1"/>
-    <col min="11" max="11" width="12.140625" style="52" customWidth="1"/>
-    <col min="12" max="12" width="11.7109375" style="52" customWidth="1"/>
-    <col min="13" max="13" width="12" style="52" customWidth="1"/>
-    <col min="14" max="14" width="12.42578125" style="52" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="12.42578125" style="52" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="52"/>
+    <col min="1" max="1" customWidth="true" style="52" width="95.0" collapsed="true"/>
+    <col min="2" max="2" style="52" width="9.140625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="52" width="17.28515625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="52" width="8.7109375" collapsed="true"/>
+    <col min="5" max="9" style="52" width="9.140625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="52" width="15.140625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="52" width="12.140625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" style="52" width="11.7109375" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" style="52" width="12.0" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" style="52" width="12.42578125" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" style="52" width="12.42578125" collapsed="true"/>
+    <col min="16" max="16384" style="52" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="60" r="1" s="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="56" t="s">
         <v>35</v>
       </c>
@@ -4128,7 +4161,7 @@
       <c r="P4" s="57"/>
       <c r="Q4" s="56"/>
     </row>
-    <row r="5" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="58" t="s">
         <v>142</v>
       </c>
@@ -4621,7 +4654,7 @@
       <c r="P19" s="57"/>
       <c r="Q19" s="56"/>
     </row>
-    <row r="20" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="58" t="s">
         <v>156</v>
       </c>
@@ -4645,14 +4678,14 @@
       <c r="Q20" s="56"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
@@ -4660,10 +4693,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="45.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="45.5703125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="30" r="1" s="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>35</v>
       </c>
@@ -4678,14 +4711,14 @@
       <c r="B2" s="4"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BA17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:BB17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
@@ -4693,23 +4726,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="48.5703125" style="52" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="15.5703125" style="52" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="24.140625" style="52" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="17.28515625" style="52" customWidth="1" collapsed="1"/>
-    <col min="5" max="10" width="9.140625" style="52" collapsed="1"/>
-    <col min="11" max="11" width="13.28515625" style="52" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="18" style="52" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="9.140625" style="52" collapsed="1"/>
-    <col min="14" max="14" width="11.5703125" style="52" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="10.28515625" style="52" customWidth="1" collapsed="1"/>
-    <col min="16" max="18" width="9.140625" style="52" collapsed="1"/>
-    <col min="19" max="19" width="33.85546875" style="52" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="21" width="11" style="52" customWidth="1" collapsed="1"/>
-    <col min="22" max="16384" width="9.140625" style="52" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="52" width="48.5703125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="52" width="15.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="52" width="24.140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="52" width="17.28515625" collapsed="true"/>
+    <col min="5" max="10" style="52" width="9.140625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="52" width="13.28515625" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" style="52" width="18.0" collapsed="true"/>
+    <col min="13" max="13" style="52" width="9.140625" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" style="52" width="11.5703125" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" style="52" width="10.28515625" collapsed="true"/>
+    <col min="16" max="18" style="52" width="9.140625" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" style="52" width="33.85546875" collapsed="true"/>
+    <col min="20" max="21" customWidth="true" style="52" width="11.0" collapsed="true"/>
+    <col min="22" max="16384" style="52" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:53" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="60" r="1" s="1" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A1" s="56" t="s">
         <v>35</v>
       </c>
@@ -4870,7 +4903,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:53" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="2" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A2" s="58" t="s">
         <v>115</v>
       </c>
@@ -4971,7 +5004,7 @@
       <c r="AZ2" s="56"/>
       <c r="BA2" s="56"/>
     </row>
-    <row r="3" spans="1:53" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="3" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A3" s="58" t="s">
         <v>116</v>
       </c>
@@ -5072,7 +5105,7 @@
       <c r="AZ3" s="56"/>
       <c r="BA3" s="56"/>
     </row>
-    <row r="4" spans="1:53" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="4" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A4" s="58" t="s">
         <v>117</v>
       </c>
@@ -5232,7 +5265,7 @@
       <c r="AZ5" s="56"/>
       <c r="BA5" s="56"/>
     </row>
-    <row r="6" spans="1:53" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="6" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A6" s="58" t="s">
         <v>119</v>
       </c>
@@ -5394,7 +5427,7 @@
       <c r="AZ7" s="56"/>
       <c r="BA7" s="56"/>
     </row>
-    <row r="8" spans="1:53" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="8" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A8" s="58" t="s">
         <v>121</v>
       </c>
@@ -5501,7 +5534,7 @@
       <c r="AZ8" s="56"/>
       <c r="BA8" s="56"/>
     </row>
-    <row r="9" spans="1:53" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="9" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A9" s="58" t="s">
         <v>122</v>
       </c>
@@ -5602,7 +5635,7 @@
       <c r="AZ9" s="56"/>
       <c r="BA9" s="56"/>
     </row>
-    <row r="10" spans="1:53" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="10" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A10" s="58" t="s">
         <v>123</v>
       </c>
@@ -5701,7 +5734,7 @@
       <c r="AZ10" s="56"/>
       <c r="BA10" s="56"/>
     </row>
-    <row r="11" spans="1:53" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="11" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A11" s="58" t="s">
         <v>124</v>
       </c>
@@ -6000,7 +6033,7 @@
       <c r="AZ13" s="56"/>
       <c r="BA13" s="56"/>
     </row>
-    <row r="14" spans="1:53" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="14" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A14" s="58" t="s">
         <v>533</v>
       </c>
@@ -6239,39 +6272,39 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="S13" r:id="rId1"/>
-    <hyperlink ref="S12" r:id="rId2"/>
-    <hyperlink ref="S11" r:id="rId3"/>
-    <hyperlink ref="S3" r:id="rId4"/>
-    <hyperlink ref="S4" r:id="rId5"/>
-    <hyperlink ref="S9" r:id="rId6"/>
-    <hyperlink ref="S6" r:id="rId7" display="scqat1@mailinator.com"/>
-    <hyperlink ref="S14" r:id="rId8" display="scqat1@mailinator.com"/>
-    <hyperlink ref="S15" r:id="rId9" display="scqat1@mailinator.com"/>
-    <hyperlink ref="AK15" r:id="rId10"/>
-    <hyperlink ref="AL15" r:id="rId11"/>
-    <hyperlink ref="AM15" r:id="rId12"/>
-    <hyperlink ref="AN15" r:id="rId13"/>
-    <hyperlink ref="AO15" r:id="rId14"/>
-    <hyperlink ref="AP15" r:id="rId15"/>
-    <hyperlink ref="AQ15" r:id="rId16"/>
-    <hyperlink ref="AR15" r:id="rId17"/>
-    <hyperlink ref="AS15" r:id="rId18"/>
-    <hyperlink ref="AT15" r:id="rId19"/>
-    <hyperlink ref="AU15" r:id="rId20"/>
-    <hyperlink ref="AV15" r:id="rId21"/>
-    <hyperlink ref="AW15" r:id="rId22"/>
-    <hyperlink ref="AX15" r:id="rId23"/>
-    <hyperlink ref="AY15" r:id="rId24"/>
+    <hyperlink r:id="rId1" ref="S13"/>
+    <hyperlink r:id="rId2" ref="S12"/>
+    <hyperlink r:id="rId3" ref="S11"/>
+    <hyperlink r:id="rId4" ref="S3"/>
+    <hyperlink r:id="rId5" ref="S4"/>
+    <hyperlink r:id="rId6" ref="S9"/>
+    <hyperlink display="scqat1@mailinator.com" r:id="rId7" ref="S6"/>
+    <hyperlink display="scqat1@mailinator.com" r:id="rId8" ref="S14"/>
+    <hyperlink display="scqat1@mailinator.com" r:id="rId9" ref="S15"/>
+    <hyperlink r:id="rId10" ref="AK15"/>
+    <hyperlink r:id="rId11" ref="AL15"/>
+    <hyperlink r:id="rId12" ref="AM15"/>
+    <hyperlink r:id="rId13" ref="AN15"/>
+    <hyperlink r:id="rId14" ref="AO15"/>
+    <hyperlink r:id="rId15" ref="AP15"/>
+    <hyperlink r:id="rId16" ref="AQ15"/>
+    <hyperlink r:id="rId17" ref="AR15"/>
+    <hyperlink r:id="rId18" ref="AS15"/>
+    <hyperlink r:id="rId19" ref="AT15"/>
+    <hyperlink r:id="rId20" ref="AU15"/>
+    <hyperlink r:id="rId21" ref="AV15"/>
+    <hyperlink r:id="rId22" ref="AW15"/>
+    <hyperlink r:id="rId23" ref="AX15"/>
+    <hyperlink r:id="rId24" ref="AY15"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId25"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9" r:id="rId25"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:T24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F7" sqref="F7"/>
@@ -6279,19 +6312,19 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="45.5703125" style="71" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="7" width="9.140625" style="71" collapsed="1"/>
-    <col min="8" max="8" width="11" style="71" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="11.42578125" style="71" customWidth="1" collapsed="1"/>
-    <col min="10" max="14" width="9.140625" style="71" collapsed="1"/>
-    <col min="15" max="15" width="11" style="71" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="9.140625" style="72" collapsed="1"/>
-    <col min="17" max="17" width="11" style="47" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="11" style="47" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="71" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="71" width="45.5703125" collapsed="true"/>
+    <col min="2" max="7" style="71" width="9.140625" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" style="71" width="11.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="71" width="11.42578125" collapsed="true"/>
+    <col min="10" max="14" style="71" width="9.140625" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" style="71" width="11.0" collapsed="true"/>
+    <col min="16" max="16" style="72" width="9.140625" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" style="47" width="11.0" collapsed="true"/>
+    <col min="18" max="19" customWidth="true" style="47" width="11.0" collapsed="true"/>
+    <col min="20" max="16384" style="71" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="69" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="60" r="1" s="69" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="67" t="s">
         <v>35</v>
       </c>
@@ -6512,7 +6545,7 @@
       <c r="R7" s="55"/>
       <c r="S7" s="55"/>
     </row>
-    <row r="8" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="70" t="s">
         <v>165</v>
       </c>
@@ -6558,7 +6591,7 @@
       <c r="R9" s="55"/>
       <c r="S9" s="55"/>
     </row>
-    <row r="10" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="70" t="s">
         <v>167</v>
       </c>
@@ -6581,7 +6614,7 @@
       <c r="R10" s="55"/>
       <c r="S10" s="55"/>
     </row>
-    <row r="11" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="70" t="s">
         <v>168</v>
       </c>
@@ -6723,7 +6756,7 @@
       <c r="R16" s="54"/>
       <c r="S16" s="54"/>
     </row>
-    <row r="17" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" s="70" t="s">
         <v>174</v>
       </c>
@@ -6746,7 +6779,7 @@
       <c r="R17" s="55"/>
       <c r="S17" s="55"/>
     </row>
-    <row r="18" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" s="70" t="s">
         <v>175</v>
       </c>
@@ -6769,7 +6802,7 @@
       <c r="R18" s="55"/>
       <c r="S18" s="55"/>
     </row>
-    <row r="19" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="70" t="s">
         <v>176</v>
       </c>
@@ -6795,7 +6828,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="20" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="70" t="s">
         <v>177</v>
       </c>
@@ -6864,7 +6897,7 @@
       <c r="R22" s="55"/>
       <c r="S22" s="55"/>
     </row>
-    <row r="23" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" s="70" t="s">
         <v>179</v>
       </c>
@@ -6920,14 +6953,14 @@
       <c r="S24" s="55"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
@@ -6935,17 +6968,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="45.5703125" style="52" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="14.28515625" style="47" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="17.28515625" style="47" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="17.28515625" style="47" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="11.7109375" style="47" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="8" width="17.28515625" style="47" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="22.28515625" style="52" customWidth="1" collapsed="1"/>
-    <col min="10" max="16384" width="9.140625" style="52" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="52" width="45.5703125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="47" width="14.28515625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="47" width="17.28515625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="47" width="17.28515625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="47" width="11.7109375" collapsed="true"/>
+    <col min="6" max="8" customWidth="true" style="47" width="17.28515625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="52" width="22.28515625" collapsed="true"/>
+    <col min="10" max="16384" style="52" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="29" t="s">
         <v>35</v>
       </c>
@@ -6974,7 +7007,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="33" t="s">
         <v>181</v>
       </c>
@@ -7001,7 +7034,7 @@
       </c>
       <c r="I2" s="31"/>
     </row>
-    <row r="3" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="33" t="s">
         <v>182</v>
       </c>
@@ -7020,7 +7053,7 @@
       <c r="H3" s="54"/>
       <c r="I3" s="31"/>
     </row>
-    <row r="4" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="33" t="s">
         <v>183</v>
       </c>
@@ -7039,7 +7072,7 @@
       <c r="H4" s="54"/>
       <c r="I4" s="31"/>
     </row>
-    <row r="5" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row ht="45" r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="33" t="s">
         <v>184</v>
       </c>
@@ -7058,7 +7091,7 @@
       <c r="H5" s="54"/>
       <c r="I5" s="31"/>
     </row>
-    <row r="6" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row ht="45" r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="33" t="s">
         <v>185</v>
       </c>
@@ -7085,7 +7118,7 @@
       </c>
       <c r="I6" s="31"/>
     </row>
-    <row r="7" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row ht="45" r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="33" t="s">
         <v>186</v>
       </c>
@@ -7104,7 +7137,7 @@
       <c r="H7" s="55"/>
       <c r="I7" s="31"/>
     </row>
-    <row r="8" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row ht="45" r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="33" t="s">
         <v>187</v>
       </c>
@@ -7123,7 +7156,7 @@
       <c r="H8" s="55"/>
       <c r="I8" s="31"/>
     </row>
-    <row r="9" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row ht="45" r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="33" t="s">
         <v>568</v>
       </c>
@@ -7146,7 +7179,7 @@
       <c r="H9" s="55"/>
       <c r="I9" s="78"/>
     </row>
-    <row r="10" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="33" t="s">
         <v>188</v>
       </c>
@@ -7166,14 +7199,14 @@
       <c r="I10" s="31"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AB3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H9" sqref="H9"/>
@@ -7181,13 +7214,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.85546875" style="52" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="10" width="9.140625" style="52" collapsed="1"/>
-    <col min="11" max="11" width="11" style="52" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="16384" width="9.140625" style="52" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="52" width="32.85546875" collapsed="true"/>
+    <col min="2" max="10" style="52" width="9.140625" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" style="52" width="11.0" collapsed="true"/>
+    <col min="12" max="16384" style="52" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="60" x14ac:dyDescent="0.25">
+    <row ht="60" r="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A1" s="29" t="s">
         <v>35</v>
       </c>
@@ -7377,14 +7410,14 @@
       <c r="AA3" s="57"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A1:B3"/>
@@ -7392,10 +7425,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="40.5703125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="40.5703125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>35</v>
       </c>
@@ -7409,21 +7442,21 @@
       </c>
       <c r="B2" s="4"/>
     </row>
-    <row r="3" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>190</v>
       </c>
       <c r="B3" s="4"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
@@ -7431,17 +7464,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="70.140625" style="52" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="4" width="70.140625" style="52" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="23.85546875" style="52" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="21.5703125" style="52" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="23.140625" style="52" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="25.85546875" style="52" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="29.42578125" style="52" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="26" style="52" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="22.5703125" style="52" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="29.140625" style="52" customWidth="1" collapsed="1"/>
-    <col min="13" max="16384" width="9.140625" style="52" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="52" width="70.140625" collapsed="true"/>
+    <col min="2" max="4" customWidth="true" style="52" width="70.140625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="52" width="23.85546875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="52" width="21.5703125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="52" width="23.140625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="52" width="25.85546875" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="52" width="29.42578125" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="52" width="26.0" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="52" width="22.5703125" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" style="52" width="29.140625" collapsed="true"/>
+    <col min="13" max="16384" style="52" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
@@ -7552,7 +7585,7 @@
         <v>4042053299</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="33" t="s">
         <v>193</v>
       </c>
@@ -7566,7 +7599,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="33" t="s">
         <v>194</v>
       </c>
@@ -7595,30 +7628,30 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScaleNormal="100">
       <selection activeCell="D1" sqref="D1:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="65.140625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="24.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="17.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="17.28515625" style="17" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="22.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="6.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="65.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="24.140625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="17.28515625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="17" width="17.28515625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="22.140625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="6.42578125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="1" s="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>35</v>
       </c>
@@ -7685,14 +7718,14 @@
       <c r="F4" s="2"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
@@ -7700,13 +7733,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="47" style="52" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="30.85546875" style="52" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="31.140625" style="52" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="31.7109375" style="52" customWidth="1" collapsed="1"/>
-    <col min="5" max="6" width="19.85546875" style="52" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="18.7109375" style="52" customWidth="1" collapsed="1"/>
-    <col min="8" max="16384" width="9.140625" style="52" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="52" width="47.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="52" width="30.85546875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="52" width="31.140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="52" width="31.7109375" collapsed="true"/>
+    <col min="5" max="6" customWidth="true" style="52" width="19.85546875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="52" width="18.7109375" collapsed="true"/>
+    <col min="8" max="16384" style="52" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -7774,7 +7807,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="33" t="s">
         <v>197</v>
       </c>
@@ -7793,7 +7826,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="33" t="s">
         <v>198</v>
       </c>
@@ -7812,7 +7845,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="33" t="s">
         <v>199</v>
       </c>
@@ -7829,7 +7862,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="33" t="s">
         <v>200</v>
       </c>
@@ -7852,7 +7885,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="33" t="s">
         <v>201</v>
       </c>
@@ -7865,7 +7898,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="33" t="s">
         <v>202</v>
       </c>
@@ -7919,19 +7952,19 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1"/>
-    <hyperlink ref="B6" r:id="rId2"/>
-    <hyperlink ref="B4" r:id="rId3"/>
-    <hyperlink ref="B7" r:id="rId4"/>
+    <hyperlink r:id="rId1" ref="B3"/>
+    <hyperlink r:id="rId2" ref="B6"/>
+    <hyperlink r:id="rId3" ref="B4"/>
+    <hyperlink r:id="rId4" ref="B7"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9" r:id="rId5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A1:B4"/>
@@ -7939,10 +7972,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="45.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="45.5703125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>35</v>
       </c>
@@ -7969,14 +8002,14 @@
       <c r="B4" s="4"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
@@ -7984,10 +8017,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="45.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="45.5703125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>35</v>
       </c>
@@ -8008,14 +8041,14 @@
       <c r="B3" s="4"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1:C2"/>
@@ -8023,12 +8056,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="45.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="24.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="17.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="45.5703125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="24.140625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="17.28515625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>35</v>
       </c>
@@ -8067,14 +8100,14 @@
       <c r="D3" s="4"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
@@ -8082,13 +8115,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="45.5703125" style="17" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="30.5703125" style="17" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="45.5703125" style="17" customWidth="1" collapsed="1"/>
-    <col min="4" max="16384" width="9.140625" style="17" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="17" width="45.5703125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="17" width="30.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="17" width="45.5703125" collapsed="true"/>
+    <col min="4" max="16384" style="17" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="29" t="s">
         <v>35</v>
       </c>
@@ -8110,7 +8143,7 @@
       <c r="C2" s="33"/>
       <c r="D2" s="31"/>
     </row>
-    <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="33" t="s">
         <v>213</v>
       </c>
@@ -8122,7 +8155,7 @@
       </c>
       <c r="D3" s="31"/>
     </row>
-    <row r="4" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="33" t="s">
         <v>214</v>
       </c>
@@ -8148,18 +8181,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1"/>
-    <hyperlink ref="B4" r:id="rId2"/>
-    <hyperlink ref="B5" r:id="rId3"/>
+    <hyperlink r:id="rId1" ref="B3"/>
+    <hyperlink r:id="rId2" ref="B4"/>
+    <hyperlink r:id="rId3" ref="B5"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9" r:id="rId4"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1:C3"/>
@@ -8167,13 +8200,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="45.5703125" style="17" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="30.5703125" style="17" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="45.5703125" style="17" customWidth="1" collapsed="1"/>
-    <col min="4" max="16384" width="9.140625" style="17" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="17" width="45.5703125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="17" width="30.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="17" width="45.5703125" collapsed="true"/>
+    <col min="4" max="16384" style="17" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="29" t="s">
         <v>35</v>
       </c>
@@ -8195,7 +8228,7 @@
       <c r="C2" s="33"/>
       <c r="D2" s="31"/>
     </row>
-    <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="33" t="s">
         <v>213</v>
       </c>
@@ -8207,7 +8240,7 @@
       </c>
       <c r="D3" s="31"/>
     </row>
-    <row r="4" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="33" t="s">
         <v>214</v>
       </c>
@@ -8233,18 +8266,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1"/>
-    <hyperlink ref="B4" r:id="rId2"/>
-    <hyperlink ref="B5" r:id="rId3"/>
+    <hyperlink r:id="rId1" ref="B3"/>
+    <hyperlink r:id="rId2" ref="B4"/>
+    <hyperlink r:id="rId3" ref="B5"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9" r:id="rId4"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A1:B2"/>
@@ -8252,10 +8285,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="45.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="45.5703125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>35</v>
       </c>
@@ -8270,14 +8303,14 @@
       <c r="B2" s="4"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
@@ -8285,13 +8318,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="45.5703125" style="17" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="30.5703125" style="17" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="45.5703125" style="17" customWidth="1" collapsed="1"/>
-    <col min="4" max="16384" width="9.140625" style="17" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="17" width="45.5703125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="17" width="30.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="17" width="45.5703125" collapsed="true"/>
+    <col min="4" max="16384" style="17" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="29" t="s">
         <v>35</v>
       </c>
@@ -8337,7 +8370,7 @@
       <c r="C4" s="33"/>
       <c r="D4" s="31"/>
     </row>
-    <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="33" t="s">
         <v>220</v>
       </c>
@@ -8350,14 +8383,14 @@
       <c r="D5" s="31"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A18" sqref="A18"/>
@@ -8365,10 +8398,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="45.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="45.5703125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="25" t="s">
         <v>35</v>
       </c>
@@ -8391,7 +8424,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row ht="45" r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="27" t="s">
         <v>338</v>
       </c>
@@ -8414,16 +8447,16 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1"/>
+    <hyperlink r:id="rId1" ref="D2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A1:B2"/>
@@ -8431,10 +8464,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="45.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="45.5703125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>35</v>
       </c>
@@ -8449,14 +8482,14 @@
       <c r="B2" s="4"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A10" sqref="A10"/>
@@ -8464,14 +8497,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="65.140625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="24.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="17.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="22.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="6.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="65.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="24.140625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="17.28515625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="22.140625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="6.42578125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="1" s="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>35</v>
       </c>
@@ -8502,14 +8535,14 @@
       <c r="E2" s="2"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
@@ -8517,10 +8550,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="45.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="45.5703125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>35</v>
       </c>
@@ -8535,14 +8568,14 @@
       <c r="B2" s="4"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3:C3"/>
@@ -8550,13 +8583,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="24.140625" style="17" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="17.28515625" style="17" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="8.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="33.42578125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="17" width="24.140625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="17" width="17.28515625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="8.7109375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="40" t="s">
         <v>35</v>
       </c>
@@ -8603,14 +8636,14 @@
       <c r="D4" s="41"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B18" sqref="B18"/>
@@ -8618,16 +8651,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="45.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="24" style="52" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="19.28515625" style="52" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="5" width="19.28515625" style="52" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="16" style="52" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="8.85546875" style="52" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="9" width="8.85546875" style="52" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="45.5703125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="52" width="24.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="52" width="19.28515625" collapsed="true"/>
+    <col min="4" max="5" customWidth="true" style="52" width="19.28515625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="52" width="16.0" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" style="52" width="8.85546875" collapsed="true"/>
+    <col min="8" max="9" customWidth="true" style="52" width="8.85546875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>35</v>
       </c>
@@ -8769,7 +8802,7 @@
       <c r="I6" s="33"/>
       <c r="J6" s="4"/>
     </row>
-    <row r="7" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
         <v>231</v>
       </c>
@@ -8866,32 +8899,32 @@
       <c r="F10" s="33"/>
       <c r="G10" s="33"/>
       <c r="H10" t="s">
-        <v>691</v>
+        <v>709</v>
       </c>
       <c r="I10" t="s">
-        <v>692</v>
+        <v>710</v>
       </c>
       <c r="J10" s="4"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
-    <hyperlink ref="B3" r:id="rId2"/>
-    <hyperlink ref="B4" r:id="rId3"/>
-    <hyperlink ref="B5" r:id="rId4"/>
-    <hyperlink ref="B6" r:id="rId5"/>
-    <hyperlink ref="B7" r:id="rId6"/>
-    <hyperlink ref="B8" r:id="rId7"/>
-    <hyperlink ref="B9" r:id="rId8"/>
+    <hyperlink r:id="rId1" ref="B2"/>
+    <hyperlink r:id="rId2" ref="B3"/>
+    <hyperlink r:id="rId3" ref="B4"/>
+    <hyperlink r:id="rId4" ref="B5"/>
+    <hyperlink r:id="rId5" ref="B6"/>
+    <hyperlink r:id="rId6" ref="B7"/>
+    <hyperlink r:id="rId7" ref="B8"/>
+    <hyperlink r:id="rId8" ref="B9"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId9"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9" r:id="rId9"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D1" sqref="D1:D6"/>
@@ -8899,11 +8932,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="65.28515625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="24.140625" style="17" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="19.28515625" style="17" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="45.5703125" style="17" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="20" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="65.28515625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="17" width="24.140625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="17" width="19.28515625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="17" width="45.5703125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="20.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -9000,20 +9033,20 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
-    <hyperlink ref="B3" r:id="rId2"/>
-    <hyperlink ref="B4" r:id="rId3"/>
-    <hyperlink ref="B5" r:id="rId4"/>
-    <hyperlink ref="B6" r:id="rId5"/>
+    <hyperlink r:id="rId1" ref="B2"/>
+    <hyperlink r:id="rId2" ref="B3"/>
+    <hyperlink r:id="rId3" ref="B4"/>
+    <hyperlink r:id="rId4" ref="B5"/>
+    <hyperlink r:id="rId5" ref="B6"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9" r:id="rId6"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
@@ -9021,12 +9054,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="65.140625" style="17" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="24.140625" style="17" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="17.28515625" style="17" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="22.140625" style="17" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="6.42578125" style="17" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="16384" width="9.140625" style="17" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="17" width="65.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="17" width="24.140625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="17" width="17.28515625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="17" width="22.140625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="17" width="6.42578125" collapsed="true"/>
+    <col min="6" max="16384" style="17" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -9052,7 +9085,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
         <v>65</v>
       </c>
@@ -9080,7 +9113,7 @@
       </c>
       <c r="G3" s="34"/>
     </row>
-    <row r="4" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>70</v>
       </c>
@@ -9105,14 +9138,14 @@
       <c r="G5" s="34"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AD12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AE12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
@@ -9120,16 +9153,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="82.42578125" style="52" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="24.140625" style="52" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="17.28515625" style="52" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="22.140625" style="52" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="23.7109375" style="52" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="14.85546875" style="52" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="16384" width="9.140625" style="52" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="52" width="82.42578125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="52" width="24.140625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="52" width="17.28515625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="52" width="22.140625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="52" width="23.7109375" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="52" width="14.85546875" collapsed="true"/>
+    <col min="7" max="16384" style="52" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="45" r="1" s="1" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A1" s="34" t="s">
         <v>35</v>
       </c>
@@ -9533,7 +9566,7 @@
       <c r="AC8" s="20"/>
       <c r="AD8" s="29"/>
     </row>
-    <row r="9" spans="1:30" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="9" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A9" s="18" t="s">
         <v>84</v>
       </c>
@@ -9571,7 +9604,7 @@
       <c r="AC9" s="20"/>
       <c r="AD9" s="29"/>
     </row>
-    <row r="10" spans="1:30" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="10" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A10" s="18" t="s">
         <v>85</v>
       </c>
@@ -9699,22 +9732,22 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F11" r:id="rId1" display="Hello@gmailcom"/>
-    <hyperlink ref="G11" r:id="rId2"/>
-    <hyperlink ref="B3" r:id="rId3"/>
-    <hyperlink ref="B8" r:id="rId4"/>
-    <hyperlink ref="B4" r:id="rId5"/>
-    <hyperlink ref="B10" r:id="rId6"/>
-    <hyperlink ref="B2" r:id="rId7"/>
+    <hyperlink display="Hello@gmailcom" r:id="rId1" ref="F11"/>
+    <hyperlink r:id="rId2" ref="G11"/>
+    <hyperlink r:id="rId3" ref="B3"/>
+    <hyperlink r:id="rId4" ref="B8"/>
+    <hyperlink r:id="rId5" ref="B4"/>
+    <hyperlink r:id="rId6" ref="B10"/>
+    <hyperlink r:id="rId7" ref="B2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId8"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9" r:id="rId8"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2:C2"/>
@@ -9722,14 +9755,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="65.140625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="24.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="17.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="22.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="10.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="65.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="24.140625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="17.28515625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="22.140625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="10.42578125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="60" r="1" s="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="29" t="s">
         <v>35</v>
       </c>
@@ -9773,7 +9806,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="2" s="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="33" t="s">
         <v>86</v>
       </c>
@@ -9803,7 +9836,7 @@
       </c>
       <c r="N2" s="29"/>
     </row>
-    <row r="3" spans="1:14" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="3" s="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="33" t="s">
         <v>87</v>
       </c>
@@ -9833,7 +9866,7 @@
       </c>
       <c r="N3" s="29"/>
     </row>
-    <row r="4" spans="1:14" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="4" s="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="33" t="s">
         <v>353</v>
       </c>
@@ -9877,18 +9910,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1"/>
-    <hyperlink ref="D3" r:id="rId2"/>
-    <hyperlink ref="D4" r:id="rId3"/>
+    <hyperlink r:id="rId1" ref="D2"/>
+    <hyperlink r:id="rId2" ref="D3"/>
+    <hyperlink r:id="rId3" ref="D4"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9" r:id="rId4"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
@@ -9896,19 +9929,19 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="78.5703125" style="17" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="24.140625" style="17" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="17.28515625" style="17" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="22.140625" style="17" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="18.28515625" style="17" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="16.42578125" style="17" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="10.42578125" style="17" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="9" width="9.140625" style="17" collapsed="1"/>
-    <col min="10" max="10" width="28.7109375" style="17" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="16384" width="9.140625" style="17" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="17" width="78.5703125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="17" width="24.140625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="17" width="17.28515625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="17" width="22.140625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="17" width="18.28515625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="17" width="16.42578125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" style="17" width="10.42578125" collapsed="true"/>
+    <col min="8" max="9" style="17" width="9.140625" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" style="17" width="28.7109375" collapsed="true"/>
+    <col min="11" max="16384" style="17" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="1" s="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="29" t="s">
         <v>35</v>
       </c>
@@ -9984,7 +10017,7 @@
       <c r="M2" s="33"/>
       <c r="N2" s="29"/>
     </row>
-    <row r="3" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="33" t="s">
         <v>448</v>
       </c>
@@ -10077,14 +10110,14 @@
       <c r="N5" s="32"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AB5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AC5"/>
   <sheetViews>
     <sheetView topLeftCell="H1" workbookViewId="0">
       <selection activeCell="Q1" sqref="Q1"/>
@@ -10092,34 +10125,34 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="59.7109375" style="47" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="14.28515625" style="47" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="17.28515625" style="47" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="17.28515625" style="47" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="10" style="47" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="11.7109375" style="47" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="9.7109375" style="47" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="10" width="9.140625" style="47" collapsed="1"/>
-    <col min="11" max="11" width="12.42578125" style="47" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="12.42578125" style="47" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="25.28515625" style="47" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="9.140625" style="47" collapsed="1"/>
-    <col min="15" max="15" width="11.42578125" style="47" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="9.140625" style="47" collapsed="1"/>
-    <col min="17" max="17" width="11.140625" style="47" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="8.5703125" style="47" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="20.28515625" style="47" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="31.28515625" style="47" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="26" style="47" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="23" width="10.42578125" style="47" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="5" style="47" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="9.140625" style="47" collapsed="1"/>
-    <col min="26" max="26" width="13.7109375" style="47" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="24.5703125" style="47" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="28" max="16384" width="9.140625" style="47" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="47" width="59.7109375" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="47" width="14.28515625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="47" width="17.28515625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="47" width="17.28515625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="47" width="10.0" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="47" width="11.7109375" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" style="47" width="9.7109375" collapsed="true"/>
+    <col min="8" max="10" style="47" width="9.140625" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" style="47" width="12.42578125" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" style="47" width="12.42578125" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" style="47" width="25.28515625" collapsed="true"/>
+    <col min="14" max="14" style="47" width="9.140625" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" style="47" width="11.42578125" collapsed="true"/>
+    <col min="16" max="16" style="47" width="9.140625" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" style="47" width="11.140625" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" style="47" width="8.5703125" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" style="47" width="20.28515625" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" style="47" width="31.28515625" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" style="47" width="26.0" collapsed="true"/>
+    <col min="22" max="23" bestFit="true" customWidth="true" style="47" width="10.42578125" collapsed="true"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" style="47" width="5.0" collapsed="true"/>
+    <col min="25" max="25" style="47" width="9.140625" collapsed="true"/>
+    <col min="26" max="26" customWidth="true" style="47" width="13.7109375" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" style="47" width="24.5703125" collapsed="true"/>
+    <col min="28" max="16384" style="47" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" s="46" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="45" r="1" s="46" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A1" s="40" t="s">
         <v>35</v>
       </c>
@@ -10515,16 +10548,16 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="T5" r:id="rId1"/>
+    <hyperlink r:id="rId1" ref="T5"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Z6"/>
   <sheetViews>
     <sheetView topLeftCell="G1" workbookViewId="0">
       <selection activeCell="R6" sqref="R6"/>
@@ -10532,21 +10565,21 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="53.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="17.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="9.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="11.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="10.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="22.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="20" width="10.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="8.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="53.28515625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="14.28515625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="17.28515625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="10.0" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="10.140625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="9.7109375" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="11.42578125" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="10.85546875" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="22.28515625" collapsed="true"/>
+    <col min="19" max="20" bestFit="true" customWidth="true" width="10.42578125" collapsed="true"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="8.7109375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="60" r="1" s="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" s="29" t="s">
         <v>35</v>
       </c>
@@ -10867,7 +10900,7 @@
       <c r="X5" s="31"/>
       <c r="Y5" s="31"/>
     </row>
-    <row r="6" spans="1:25" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="6" s="17" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" s="32" t="s">
         <v>503</v>
       </c>
@@ -10938,12 +10971,12 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="R2" r:id="rId1" display="scqat1@mailinator.com"/>
-    <hyperlink ref="R4" r:id="rId2" display="scqat1@mailinator.com"/>
-    <hyperlink ref="R5" r:id="rId3" display="scqat1@mailinator.com"/>
-    <hyperlink ref="R6" r:id="rId4" display="scqat1@mailinator.com"/>
+    <hyperlink display="scqat1@mailinator.com" r:id="rId1" ref="R2"/>
+    <hyperlink display="scqat1@mailinator.com" r:id="rId2" ref="R4"/>
+    <hyperlink display="scqat1@mailinator.com" r:id="rId3" ref="R5"/>
+    <hyperlink display="scqat1@mailinator.com" r:id="rId4" ref="R6"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9" r:id="rId5"/>
 </worksheet>
 </file>
--- a/DigitalWebsites/TestData/Global_TestData_Sheet.xlsx
+++ b/DigitalWebsites/TestData/Global_TestData_Sheet.xlsx
@@ -1,49 +1,49 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView tabRatio="753" windowHeight="5985" windowWidth="14730" xWindow="0" yWindow="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14730" windowHeight="5985" tabRatio="753" firstSheet="13" activeTab="14"/>
   </bookViews>
   <sheets>
-    <sheet name="Global" r:id="rId1" sheetId="4"/>
-    <sheet name="SoftLogin" r:id="rId2" sheetId="6"/>
-    <sheet name="Logout" r:id="rId3" sheetId="13"/>
-    <sheet name="Forgot_Password_Page" r:id="rId4" sheetId="14"/>
-    <sheet name="HardLogin_Loggedin_Account" r:id="rId5" sheetId="15"/>
-    <sheet name="Reset_PIN" r:id="rId6" sheetId="16"/>
-    <sheet name="Reset_Password" r:id="rId7" sheetId="12"/>
-    <sheet name="Fully_Enrolled_Customers_Flow" r:id="rId8" sheetId="5"/>
-    <sheet name="Pre_Enrolled_Customers_Flow" r:id="rId9" sheetId="3"/>
-    <sheet name="Store_Locator" r:id="rId10" sheetId="17"/>
-    <sheet name="Static_Infobar_loggedin_Users" r:id="rId11" sheetId="18"/>
-    <sheet name="PII_Validation" r:id="rId12" sheetId="19"/>
-    <sheet name="Enrollment_Step_Counter" r:id="rId13" sheetId="20"/>
-    <sheet name="Set_Pin_PW_in_Security_Info" r:id="rId14" sheetId="21"/>
-    <sheet name="Account_Setup_page" r:id="rId15" sheetId="22"/>
-    <sheet name="Email_Verification" r:id="rId16" sheetId="25"/>
-    <sheet name="Persist_Data_During_Enrollment" r:id="rId17" sheetId="26"/>
-    <sheet name="Fuelperks_Locator_Page" r:id="rId18" sheetId="27"/>
-    <sheet name="Account_Lookup" r:id="rId19" sheetId="28"/>
-    <sheet name="LoggedIn_for_Rewards_Section" r:id="rId20" sheetId="29"/>
-    <sheet name="Updated_HomePage" r:id="rId21" sheetId="30"/>
-    <sheet name="Never_Miss_A_Deal" r:id="rId22" sheetId="24"/>
-    <sheet name="User_Status_After_SoftLogin" r:id="rId23" sheetId="31"/>
-    <sheet name="Login_Or_Signup_Global_Nav" r:id="rId24" sheetId="32"/>
-    <sheet name="Loggedout_Rewards_Page" r:id="rId25" sheetId="33"/>
-    <sheet name="Enrollment_LandingPage" r:id="rId26" sheetId="34"/>
-    <sheet name="Enrollment_Status_Directions" r:id="rId27" sheetId="35"/>
-    <sheet name="Contact_Us" r:id="rId28" sheetId="36"/>
-    <sheet name="Global_Nav_Update" r:id="rId29" sheetId="37"/>
-    <sheet name="Update_Footer" r:id="rId30" sheetId="38"/>
-    <sheet name="Digital_Coupons" r:id="rId31" sheetId="39"/>
-    <sheet name="Shopping_List" r:id="rId32" sheetId="40"/>
-    <sheet name="Weekly_Ad" r:id="rId33" sheetId="41"/>
+    <sheet name="Global" sheetId="4" r:id="rId1"/>
+    <sheet name="SoftLogin" sheetId="6" r:id="rId2"/>
+    <sheet name="Logout" sheetId="13" r:id="rId3"/>
+    <sheet name="Forgot_Password_Page" sheetId="14" r:id="rId4"/>
+    <sheet name="HardLogin_Loggedin_Account" sheetId="15" r:id="rId5"/>
+    <sheet name="Reset_PIN" sheetId="16" r:id="rId6"/>
+    <sheet name="Reset_Password" sheetId="12" r:id="rId7"/>
+    <sheet name="Fully_Enrolled_Customers_Flow" sheetId="5" r:id="rId8"/>
+    <sheet name="Pre_Enrolled_Customers_Flow" sheetId="3" r:id="rId9"/>
+    <sheet name="Store_Locator" sheetId="17" r:id="rId10"/>
+    <sheet name="Static_Infobar_loggedin_Users" sheetId="18" r:id="rId11"/>
+    <sheet name="PII_Validation" sheetId="19" r:id="rId12"/>
+    <sheet name="Enrollment_Step_Counter" sheetId="20" r:id="rId13"/>
+    <sheet name="Set_Pin_PW_in_Security_Info" sheetId="21" r:id="rId14"/>
+    <sheet name="Account_Setup_page" sheetId="22" r:id="rId15"/>
+    <sheet name="Email_Verification" sheetId="25" r:id="rId16"/>
+    <sheet name="Persist_Data_During_Enrollment" sheetId="26" r:id="rId17"/>
+    <sheet name="Fuelperks_Locator_Page" sheetId="27" r:id="rId18"/>
+    <sheet name="Account_Lookup" sheetId="28" r:id="rId19"/>
+    <sheet name="LoggedIn_for_Rewards_Section" sheetId="29" r:id="rId20"/>
+    <sheet name="Updated_HomePage" sheetId="30" r:id="rId21"/>
+    <sheet name="Never_Miss_A_Deal" sheetId="24" r:id="rId22"/>
+    <sheet name="User_Status_After_SoftLogin" sheetId="31" r:id="rId23"/>
+    <sheet name="Login_Or_Signup_Global_Nav" sheetId="32" r:id="rId24"/>
+    <sheet name="Loggedout_Rewards_Page" sheetId="33" r:id="rId25"/>
+    <sheet name="Enrollment_LandingPage" sheetId="34" r:id="rId26"/>
+    <sheet name="Enrollment_Status_Directions" sheetId="35" r:id="rId27"/>
+    <sheet name="Contact_Us" sheetId="36" r:id="rId28"/>
+    <sheet name="Global_Nav_Update" sheetId="37" r:id="rId29"/>
+    <sheet name="Update_Footer" sheetId="38" r:id="rId30"/>
+    <sheet name="Digital_Coupons" sheetId="39" r:id="rId31"/>
+    <sheet name="Shopping_List" sheetId="40" r:id="rId32"/>
+    <sheet name="Weekly_Ad" sheetId="41" r:id="rId33"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1693" uniqueCount="715">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1677" uniqueCount="707">
   <si>
     <t>32256</t>
   </si>
@@ -2129,17 +2129,6 @@
     <t>product2</t>
   </si>
   <si>
-    <t>Angus Choice Boneless Top Round London Broil or Roast $299 per lb SAVE UP TO $4 LB
-EQUAL OR LESSER VALUE</t>
-  </si>
-  <si>
-    <t>Blackberries or Florida Strawberries buy 1 get 1 free equal or lesser value SAVE UP TO $499 ON 2
-MIX &amp; MATCH
-Blackberries 6 oz or
-Florida Strawberries 16 oz Marie’s Strawberry Glaze 14 oz 2 for $3
-EQUAL OR LESSER VALUE</t>
-  </si>
-  <si>
     <t>Primary_Phone_invalid</t>
   </si>
   <si>
@@ -2186,45 +2175,12 @@
   </si>
   <si>
     <t>5035019987</t>
-  </si>
-  <si>
-    <t>Devour Entrées, Kraft Macaroni &amp; Cheese Frozen Dinners or TGI Fridays Appetizers buy 2 get 1 free equal or lesser value SAVE UP TO $449 ON 3
-When you buy any 3
-MIX &amp; MATCH
-76-12 oz
-EQUAL OR LESSER VALUE</t>
-  </si>
-  <si>
-    <t>Michael Angelo's Family Size Entrées 2$10 SAVE UP TO $598 ON 2
-20-32 oz</t>
-  </si>
-  <si>
-    <t>Simply Smoothie 2$6 SAVE UP TO $198 ON 2
-32 oz</t>
-  </si>
-  <si>
-    <t>Dannon Oikos or Light &amp; Fit Greek Yogurt or Activia or Danimals Smoothie 2$10 SAVE UP TO $298 ON 2
-Dannon Oikos or Light &amp; Fit Greek Yogurt
-Quart or Activia or Danimals Smoothie
-12 count or YoCrunch 8 count</t>
-  </si>
-  <si>
-    <t>Alexia Frozen Vegetables, Healthy Choice Power Bowls or PF Chang's Noodle Bowls 2$7 SAVE UP TO $198 ON 2
-MIX &amp; MATCH
-Alexia Frozen Vegetables 12 oz,
-Healthy Choice Power Bowls 925-975 oz or
-PF Chang's Noodle Bowls 11 oz</t>
-  </si>
-  <si>
-    <t>Florida's Natural Orange Juice 2$6 SAVE UP TO $178 ON 2
-52 oz</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2248,7 +2204,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2294,6 +2250,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2360,162 +2322,166 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="85">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="1" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" quotePrefix="1" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="1" fillId="2" fontId="0" numFmtId="0" xfId="0">
+  <cellXfs count="87">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" borderId="1" fillId="0" fontId="1" numFmtId="0" quotePrefix="1" xfId="1"/>
-    <xf applyBorder="1" applyFill="1" borderId="1" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="1" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="1" fillId="3" fontId="0" numFmtId="0" quotePrefix="1" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="1" fillId="5" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="1" numFmtId="0" quotePrefix="1" xfId="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="6" fontId="2" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="7" fontId="2" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyBorder="1" applyFill="1" borderId="1" fillId="6" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="2" numFmtId="1" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="1" numFmtId="1" xfId="1"/>
-    <xf applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="1" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="1" fillId="8" fontId="1" numFmtId="1" xfId="1"/>
-    <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="1" fillId="8" fontId="0" numFmtId="1" quotePrefix="1" xfId="0"/>
-    <xf applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="1" quotePrefix="1" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="1" fillId="8" fontId="1" numFmtId="1" quotePrefix="1" xfId="1"/>
-    <xf applyBorder="1" applyFill="1" borderId="1" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="1" fillId="2" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="1" fillId="8" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="8" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="1" fillId="8" borderId="1" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="2" numFmtId="1" quotePrefix="1" xfId="0">
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyBorder="1" applyFill="1" borderId="1" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" quotePrefix="1" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="1" fillId="2" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="1" fillId="2" fontId="0" numFmtId="1" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="1" fillId="2" fontId="0" numFmtId="1" xfId="0">
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyBorder="1" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="1"/>
-    <xf applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" quotePrefix="1" xfId="0"/>
-    <xf applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="1" fillId="2" fontId="0" numFmtId="49" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="1" fillId="2" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="2" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
-    <xf applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="1" numFmtId="1" quotePrefix="1" xfId="1"/>
-    <xf applyFill="1" applyNumberFormat="1" borderId="0" fillId="2" fontId="0" numFmtId="49" xfId="0"/>
-    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="2" numFmtId="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="1"/>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="2" numFmtId="49" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="6" fontId="2" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" quotePrefix="1" xfId="0"/>
-    <xf applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="1" fillId="2" fontId="0" numFmtId="49" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="1" fillId="2" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="2" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="1" numFmtId="49" xfId="1"/>
-    <xf applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="1" fillId="8" fontId="0" numFmtId="49" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="1" fillId="8" fontId="0" numFmtId="49" quotePrefix="1" xfId="0"/>
-    <xf applyFill="1" applyNumberFormat="1" borderId="0" fillId="8" fontId="0" numFmtId="49" xfId="0"/>
-    <xf applyFill="1" applyNumberFormat="1" borderId="0" fillId="8" fontId="0" numFmtId="49" quotePrefix="1" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="1" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="1" fillId="2" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="8" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="8" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyFill="1" applyNumberFormat="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" quotePrefix="1" xfId="0"/>
-    <xf applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="0" quotePrefix="1" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" quotePrefix="1" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="3" fillId="2" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" quotePrefix="1" xfId="0"/>
-    <xf applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="1" numFmtId="49" quotePrefix="1" xfId="1"/>
-    <xf applyBorder="1" applyFill="1" borderId="2" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="4" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyNumberFormat="1" borderId="3" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
-    <xf applyBorder="1" applyNumberFormat="1" borderId="3" fillId="0" fontId="0" numFmtId="49" quotePrefix="1" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -2532,10 +2498,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -2570,7 +2536,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -2605,7 +2571,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -2699,21 +2665,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -2730,7 +2696,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -2782,30 +2748,30 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H33"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="40.7109375" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="44.42578125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="12.7109375" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="15.0" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="35.5703125" collapsed="true"/>
+    <col min="1" max="1" width="40.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="44.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="35.5703125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" r="1" s="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>30</v>
       </c>
@@ -3565,14 +3531,14 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
@@ -3580,23 +3546,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="52" width="45.5703125" collapsed="true"/>
-    <col min="2" max="4" style="52" width="9.140625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="52" width="17.0" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="52" width="16.5703125" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="52" width="14.5703125" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" style="52" width="19.5703125" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" style="52" width="20.7109375" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" style="52" width="21.0" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" style="52" width="24.140625" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" style="52" width="18.5703125" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" style="52" width="16.42578125" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" style="52" width="14.85546875" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" style="52" width="15.28515625" collapsed="true"/>
-    <col min="16" max="16384" style="52" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="45.5703125" style="52" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="4" width="9.140625" style="52" collapsed="1"/>
+    <col min="5" max="5" width="17" style="52" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="16.5703125" style="52" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="14.5703125" style="52" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="19.5703125" style="52" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="20.7109375" style="52" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="21" style="52" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="24.140625" style="52" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="18.5703125" style="52" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="16.42578125" style="52" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="14.85546875" style="52" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="15.28515625" style="52" customWidth="1" collapsed="1"/>
+    <col min="16" max="16384" width="9.140625" style="52" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" r="1" s="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="29" t="s">
         <v>35</v>
       </c>
@@ -3634,13 +3600,13 @@
         <v>275</v>
       </c>
       <c r="M1" s="1" t="s">
+        <v>696</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>697</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>698</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>699</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>700</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
@@ -3734,7 +3700,7 @@
       <c r="F6" s="53"/>
       <c r="G6" s="53"/>
       <c r="H6" s="30" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="I6" s="30" t="s">
         <v>684</v>
@@ -3777,7 +3743,7 @@
       <c r="N7" s="53"/>
       <c r="O7" s="53"/>
     </row>
-    <row ht="30" r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
         <v>136</v>
       </c>
@@ -3793,13 +3759,13 @@
       <c r="K8" s="53"/>
       <c r="L8" s="53"/>
       <c r="M8" s="30" t="s">
+        <v>700</v>
+      </c>
+      <c r="N8" s="30" t="s">
+        <v>701</v>
+      </c>
+      <c r="O8" s="30" t="s">
         <v>702</v>
-      </c>
-      <c r="N8" s="30" t="s">
-        <v>703</v>
-      </c>
-      <c r="O8" s="30" t="s">
-        <v>704</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
@@ -3826,31 +3792,31 @@
       <c r="O9" s="53"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="E4" sqref="D4:E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="45.5703125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="24.140625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="17.28515625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="24.0" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="19.28515625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="15.7109375" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="1" max="1" width="45.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="24.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="17.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="24" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="19.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="15.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" r="1" s="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>35</v>
       </c>
@@ -3888,7 +3854,7 @@
       <c r="F2" s="15"/>
       <c r="G2" s="4"/>
     </row>
-    <row ht="30" r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>271</v>
       </c>
@@ -3903,7 +3869,7 @@
       <c r="F3" s="15"/>
       <c r="G3" s="4"/>
     </row>
-    <row ht="30" r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
         <v>272</v>
       </c>
@@ -3937,7 +3903,7 @@
       <c r="F5" s="15"/>
       <c r="G5" s="4"/>
     </row>
-    <row ht="30" r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
         <v>279</v>
       </c>
@@ -3954,18 +3920,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="D2"/>
-    <hyperlink r:id="rId2" ref="D3"/>
-    <hyperlink r:id="rId3" ref="D4"/>
+    <hyperlink ref="D2" r:id="rId1"/>
+    <hyperlink ref="D3" r:id="rId2"/>
+    <hyperlink ref="D4" r:id="rId3"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="9" r:id="rId4"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
@@ -3973,21 +3939,21 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="52" width="95.0" collapsed="true"/>
-    <col min="2" max="2" style="52" width="9.140625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="52" width="17.28515625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" style="52" width="8.7109375" collapsed="true"/>
-    <col min="5" max="9" style="52" width="9.140625" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" style="52" width="15.140625" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" style="52" width="12.140625" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" style="52" width="11.7109375" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" style="52" width="12.0" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" style="52" width="12.42578125" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" style="52" width="12.42578125" collapsed="true"/>
-    <col min="16" max="16384" style="52" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="95" style="52" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="9.140625" style="52" collapsed="1"/>
+    <col min="3" max="3" width="17.28515625" style="52" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="8.7109375" style="52" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="9" width="9.140625" style="52" collapsed="1"/>
+    <col min="10" max="10" width="15.140625" style="52" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="12.140625" style="52" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="11.7109375" style="52" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="12" style="52" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="12.42578125" style="52" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="12.42578125" style="52" customWidth="1" collapsed="1"/>
+    <col min="16" max="16384" width="9.140625" style="52" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" ht="60" r="1" s="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A1" s="56" t="s">
         <v>35</v>
       </c>
@@ -4031,7 +3997,7 @@
         <v>38</v>
       </c>
       <c r="O1" s="57" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="P1" s="57" t="s">
         <v>50</v>
@@ -4161,7 +4127,7 @@
       <c r="P4" s="57"/>
       <c r="Q4" s="56"/>
     </row>
-    <row ht="30" r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="58" t="s">
         <v>142</v>
       </c>
@@ -4580,10 +4546,10 @@
       <c r="L17" s="54"/>
       <c r="M17" s="54"/>
       <c r="N17" s="54" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="O17" s="54" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="P17" s="57"/>
       <c r="Q17" s="56"/>
@@ -4623,10 +4589,10 @@
       <c r="L18" s="54"/>
       <c r="M18" s="54"/>
       <c r="N18" s="54" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="O18" s="54" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="P18" s="57"/>
       <c r="Q18" s="56"/>
@@ -4654,7 +4620,7 @@
       <c r="P19" s="57"/>
       <c r="Q19" s="56"/>
     </row>
-    <row ht="30" r="20" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="58" t="s">
         <v>156</v>
       </c>
@@ -4678,14 +4644,14 @@
       <c r="Q20" s="56"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
@@ -4693,10 +4659,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="45.5703125" collapsed="true"/>
+    <col min="1" max="1" width="45.5703125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" ht="30" r="1" s="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>35</v>
       </c>
@@ -4711,14 +4677,14 @@
       <c r="B2" s="4"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BB17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:BA17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
@@ -4726,23 +4692,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="52" width="48.5703125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="52" width="15.5703125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="52" width="24.140625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="52" width="17.28515625" collapsed="true"/>
-    <col min="5" max="10" style="52" width="9.140625" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" style="52" width="13.28515625" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" style="52" width="18.0" collapsed="true"/>
-    <col min="13" max="13" style="52" width="9.140625" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" style="52" width="11.5703125" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" style="52" width="10.28515625" collapsed="true"/>
-    <col min="16" max="18" style="52" width="9.140625" collapsed="true"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" style="52" width="33.85546875" collapsed="true"/>
-    <col min="20" max="21" customWidth="true" style="52" width="11.0" collapsed="true"/>
-    <col min="22" max="16384" style="52" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="48.5703125" style="52" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="15.5703125" style="52" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="24.140625" style="52" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="17.28515625" style="52" customWidth="1" collapsed="1"/>
+    <col min="5" max="10" width="9.140625" style="52" collapsed="1"/>
+    <col min="11" max="11" width="13.28515625" style="52" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="18" style="52" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="9.140625" style="52" collapsed="1"/>
+    <col min="14" max="14" width="11.5703125" style="52" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="10.28515625" style="52" customWidth="1" collapsed="1"/>
+    <col min="16" max="18" width="9.140625" style="52" collapsed="1"/>
+    <col min="19" max="19" width="33.85546875" style="52" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="21" width="11" style="52" customWidth="1" collapsed="1"/>
+    <col min="22" max="16384" width="9.140625" style="52" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" ht="60" r="1" s="1" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:53" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A1" s="56" t="s">
         <v>35</v>
       </c>
@@ -4903,7 +4869,7 @@
         <v>50</v>
       </c>
     </row>
-    <row ht="30" r="2" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:53" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="58" t="s">
         <v>115</v>
       </c>
@@ -5004,7 +4970,7 @@
       <c r="AZ2" s="56"/>
       <c r="BA2" s="56"/>
     </row>
-    <row ht="30" r="3" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:53" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="58" t="s">
         <v>116</v>
       </c>
@@ -5105,7 +5071,7 @@
       <c r="AZ3" s="56"/>
       <c r="BA3" s="56"/>
     </row>
-    <row ht="30" r="4" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:53" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="58" t="s">
         <v>117</v>
       </c>
@@ -5265,7 +5231,7 @@
       <c r="AZ5" s="56"/>
       <c r="BA5" s="56"/>
     </row>
-    <row ht="30" r="6" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:53" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="58" t="s">
         <v>119</v>
       </c>
@@ -5427,7 +5393,7 @@
       <c r="AZ7" s="56"/>
       <c r="BA7" s="56"/>
     </row>
-    <row ht="30" r="8" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:53" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="58" t="s">
         <v>121</v>
       </c>
@@ -5534,7 +5500,7 @@
       <c r="AZ8" s="56"/>
       <c r="BA8" s="56"/>
     </row>
-    <row ht="30" r="9" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:53" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="58" t="s">
         <v>122</v>
       </c>
@@ -5635,7 +5601,7 @@
       <c r="AZ9" s="56"/>
       <c r="BA9" s="56"/>
     </row>
-    <row ht="30" r="10" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:53" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="58" t="s">
         <v>123</v>
       </c>
@@ -5734,7 +5700,7 @@
       <c r="AZ10" s="56"/>
       <c r="BA10" s="56"/>
     </row>
-    <row ht="30" r="11" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:53" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="58" t="s">
         <v>124</v>
       </c>
@@ -6033,7 +5999,7 @@
       <c r="AZ13" s="56"/>
       <c r="BA13" s="56"/>
     </row>
-    <row ht="30" r="14" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:53" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="58" t="s">
         <v>533</v>
       </c>
@@ -6272,59 +6238,59 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="S13"/>
-    <hyperlink r:id="rId2" ref="S12"/>
-    <hyperlink r:id="rId3" ref="S11"/>
-    <hyperlink r:id="rId4" ref="S3"/>
-    <hyperlink r:id="rId5" ref="S4"/>
-    <hyperlink r:id="rId6" ref="S9"/>
-    <hyperlink display="scqat1@mailinator.com" r:id="rId7" ref="S6"/>
-    <hyperlink display="scqat1@mailinator.com" r:id="rId8" ref="S14"/>
-    <hyperlink display="scqat1@mailinator.com" r:id="rId9" ref="S15"/>
-    <hyperlink r:id="rId10" ref="AK15"/>
-    <hyperlink r:id="rId11" ref="AL15"/>
-    <hyperlink r:id="rId12" ref="AM15"/>
-    <hyperlink r:id="rId13" ref="AN15"/>
-    <hyperlink r:id="rId14" ref="AO15"/>
-    <hyperlink r:id="rId15" ref="AP15"/>
-    <hyperlink r:id="rId16" ref="AQ15"/>
-    <hyperlink r:id="rId17" ref="AR15"/>
-    <hyperlink r:id="rId18" ref="AS15"/>
-    <hyperlink r:id="rId19" ref="AT15"/>
-    <hyperlink r:id="rId20" ref="AU15"/>
-    <hyperlink r:id="rId21" ref="AV15"/>
-    <hyperlink r:id="rId22" ref="AW15"/>
-    <hyperlink r:id="rId23" ref="AX15"/>
-    <hyperlink r:id="rId24" ref="AY15"/>
+    <hyperlink ref="S13" r:id="rId1"/>
+    <hyperlink ref="S12" r:id="rId2"/>
+    <hyperlink ref="S11" r:id="rId3"/>
+    <hyperlink ref="S3" r:id="rId4"/>
+    <hyperlink ref="S4" r:id="rId5"/>
+    <hyperlink ref="S9" r:id="rId6"/>
+    <hyperlink ref="S6" r:id="rId7" display="scqat1@mailinator.com"/>
+    <hyperlink ref="S14" r:id="rId8" display="scqat1@mailinator.com"/>
+    <hyperlink ref="S15" r:id="rId9" display="scqat1@mailinator.com"/>
+    <hyperlink ref="AK15" r:id="rId10"/>
+    <hyperlink ref="AL15" r:id="rId11"/>
+    <hyperlink ref="AM15" r:id="rId12"/>
+    <hyperlink ref="AN15" r:id="rId13"/>
+    <hyperlink ref="AO15" r:id="rId14"/>
+    <hyperlink ref="AP15" r:id="rId15"/>
+    <hyperlink ref="AQ15" r:id="rId16"/>
+    <hyperlink ref="AR15" r:id="rId17"/>
+    <hyperlink ref="AS15" r:id="rId18"/>
+    <hyperlink ref="AT15" r:id="rId19"/>
+    <hyperlink ref="AU15" r:id="rId20"/>
+    <hyperlink ref="AV15" r:id="rId21"/>
+    <hyperlink ref="AW15" r:id="rId22"/>
+    <hyperlink ref="AX15" r:id="rId23"/>
+    <hyperlink ref="AY15" r:id="rId24"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="9" r:id="rId25"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId25"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:S24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="71" width="45.5703125" collapsed="true"/>
-    <col min="2" max="7" style="71" width="9.140625" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" style="71" width="11.0" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" style="71" width="11.42578125" collapsed="true"/>
-    <col min="10" max="14" style="71" width="9.140625" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" style="71" width="11.0" collapsed="true"/>
-    <col min="16" max="16" style="72" width="9.140625" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" style="47" width="11.0" collapsed="true"/>
-    <col min="18" max="19" customWidth="true" style="47" width="11.0" collapsed="true"/>
-    <col min="20" max="16384" style="71" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="45.5703125" style="71" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="7" width="9.140625" style="71" collapsed="1"/>
+    <col min="8" max="8" width="11" style="71" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="11.42578125" style="71" customWidth="1" collapsed="1"/>
+    <col min="10" max="14" width="9.140625" style="71" collapsed="1"/>
+    <col min="15" max="15" width="11" style="71" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="9.140625" style="72" collapsed="1"/>
+    <col min="17" max="17" width="11" style="47" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="11" style="47" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="71" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" ht="60" r="1" s="69" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" s="69" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A1" s="67" t="s">
         <v>35</v>
       </c>
@@ -6374,13 +6340,13 @@
         <v>270</v>
       </c>
       <c r="Q1" s="57" t="s">
+        <v>703</v>
+      </c>
+      <c r="R1" s="57" t="s">
+        <v>704</v>
+      </c>
+      <c r="S1" s="57" t="s">
         <v>705</v>
-      </c>
-      <c r="R1" s="57" t="s">
-        <v>706</v>
-      </c>
-      <c r="S1" s="57" t="s">
-        <v>707</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
@@ -6545,7 +6511,7 @@
       <c r="R7" s="55"/>
       <c r="S7" s="55"/>
     </row>
-    <row ht="30" r="8" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="70" t="s">
         <v>165</v>
       </c>
@@ -6591,7 +6557,7 @@
       <c r="R9" s="55"/>
       <c r="S9" s="55"/>
     </row>
-    <row ht="30" r="10" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="70" t="s">
         <v>167</v>
       </c>
@@ -6614,7 +6580,7 @@
       <c r="R10" s="55"/>
       <c r="S10" s="55"/>
     </row>
-    <row ht="30" r="11" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="70" t="s">
         <v>168</v>
       </c>
@@ -6751,12 +6717,12 @@
       <c r="O16" s="74"/>
       <c r="P16" s="75"/>
       <c r="Q16" s="84" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="R16" s="54"/>
       <c r="S16" s="54"/>
     </row>
-    <row ht="30" r="17" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="70" t="s">
         <v>174</v>
       </c>
@@ -6779,7 +6745,7 @@
       <c r="R17" s="55"/>
       <c r="S17" s="55"/>
     </row>
-    <row ht="30" r="18" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="70" t="s">
         <v>175</v>
       </c>
@@ -6802,7 +6768,7 @@
       <c r="R18" s="55"/>
       <c r="S18" s="55"/>
     </row>
-    <row ht="30" r="19" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="70" t="s">
         <v>176</v>
       </c>
@@ -6821,14 +6787,15 @@
       <c r="N19" s="74"/>
       <c r="O19" s="74"/>
       <c r="P19" s="75"/>
-      <c r="R19" s="48" t="s">
+      <c r="Q19" s="55"/>
+      <c r="R19" s="54" t="s">
         <v>610</v>
       </c>
-      <c r="S19" s="48" t="s">
+      <c r="S19" s="54" t="s">
         <v>610</v>
       </c>
     </row>
-    <row ht="30" r="20" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="70" t="s">
         <v>177</v>
       </c>
@@ -6848,8 +6815,12 @@
       <c r="O20" s="74"/>
       <c r="P20" s="75"/>
       <c r="Q20" s="83"/>
-      <c r="R20" s="55"/>
-      <c r="S20" s="55"/>
+      <c r="R20" s="48" t="s">
+        <v>610</v>
+      </c>
+      <c r="S20" s="48" t="s">
+        <v>610</v>
+      </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" s="70" t="s">
@@ -6897,7 +6868,7 @@
       <c r="R22" s="55"/>
       <c r="S22" s="55"/>
     </row>
-    <row ht="30" r="23" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="70" t="s">
         <v>179</v>
       </c>
@@ -6953,14 +6924,14 @@
       <c r="S24" s="55"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
@@ -6968,17 +6939,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="52" width="45.5703125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="47" width="14.28515625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="47" width="17.28515625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="47" width="17.28515625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="47" width="11.7109375" collapsed="true"/>
-    <col min="6" max="8" customWidth="true" style="47" width="17.28515625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" style="52" width="22.28515625" collapsed="true"/>
-    <col min="10" max="16384" style="52" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="45.5703125" style="52" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="14.28515625" style="47" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="17.28515625" style="47" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="17.28515625" style="47" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="11.7109375" style="47" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="8" width="17.28515625" style="47" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="22.28515625" style="52" customWidth="1" collapsed="1"/>
+    <col min="10" max="16384" width="9.140625" style="52" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="30" r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="29" t="s">
         <v>35</v>
       </c>
@@ -7007,7 +6978,7 @@
         <v>50</v>
       </c>
     </row>
-    <row ht="30" r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="33" t="s">
         <v>181</v>
       </c>
@@ -7034,7 +7005,7 @@
       </c>
       <c r="I2" s="31"/>
     </row>
-    <row ht="30" r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="33" t="s">
         <v>182</v>
       </c>
@@ -7053,7 +7024,7 @@
       <c r="H3" s="54"/>
       <c r="I3" s="31"/>
     </row>
-    <row ht="30" r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="33" t="s">
         <v>183</v>
       </c>
@@ -7072,7 +7043,7 @@
       <c r="H4" s="54"/>
       <c r="I4" s="31"/>
     </row>
-    <row ht="45" r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="33" t="s">
         <v>184</v>
       </c>
@@ -7091,7 +7062,7 @@
       <c r="H5" s="54"/>
       <c r="I5" s="31"/>
     </row>
-    <row ht="45" r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="33" t="s">
         <v>185</v>
       </c>
@@ -7118,7 +7089,7 @@
       </c>
       <c r="I6" s="31"/>
     </row>
-    <row ht="45" r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="33" t="s">
         <v>186</v>
       </c>
@@ -7137,7 +7108,7 @@
       <c r="H7" s="55"/>
       <c r="I7" s="31"/>
     </row>
-    <row ht="45" r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="33" t="s">
         <v>187</v>
       </c>
@@ -7156,7 +7127,7 @@
       <c r="H8" s="55"/>
       <c r="I8" s="31"/>
     </row>
-    <row ht="45" r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="33" t="s">
         <v>568</v>
       </c>
@@ -7179,7 +7150,7 @@
       <c r="H9" s="55"/>
       <c r="I9" s="78"/>
     </row>
-    <row ht="30" r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="33" t="s">
         <v>188</v>
       </c>
@@ -7199,14 +7170,14 @@
       <c r="I10" s="31"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AB3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AA3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H9" sqref="H9"/>
@@ -7214,13 +7185,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="52" width="32.85546875" collapsed="true"/>
-    <col min="2" max="10" style="52" width="9.140625" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" style="52" width="11.0" collapsed="true"/>
-    <col min="12" max="16384" style="52" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="32.85546875" style="52" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="10" width="9.140625" style="52" collapsed="1"/>
+    <col min="11" max="11" width="11" style="52" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="16384" width="9.140625" style="52" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="60" r="1" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" ht="60" x14ac:dyDescent="0.25">
       <c r="A1" s="29" t="s">
         <v>35</v>
       </c>
@@ -7410,25 +7381,25 @@
       <c r="AA3" s="57"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A1:B3"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="40.5703125" collapsed="true"/>
+    <col min="1" max="1" width="40.5703125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="30" r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>35</v>
       </c>
@@ -7442,21 +7413,290 @@
       </c>
       <c r="B2" s="4"/>
     </row>
-    <row ht="30" r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>190</v>
       </c>
       <c r="B3" s="4"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="70.140625" style="52" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="4" width="70.140625" style="52" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="23.85546875" style="52" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="21.5703125" style="52" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="23.140625" style="52" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="25.85546875" style="52" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="29.42578125" style="52" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="26" style="52" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="22.5703125" style="52" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="29.140625" style="52" customWidth="1" collapsed="1"/>
+    <col min="13" max="16384" width="9.140625" style="52" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="29" t="s">
+        <v>588</v>
+      </c>
+      <c r="C1" s="29" t="s">
+        <v>589</v>
+      </c>
+      <c r="D1" s="29" t="s">
+        <v>590</v>
+      </c>
+      <c r="E1" s="29" t="s">
+        <v>591</v>
+      </c>
+      <c r="F1" s="29" t="s">
+        <v>592</v>
+      </c>
+      <c r="G1" s="81" t="s">
+        <v>593</v>
+      </c>
+      <c r="H1" s="81" t="s">
+        <v>594</v>
+      </c>
+      <c r="I1" s="81" t="s">
+        <v>595</v>
+      </c>
+      <c r="J1" s="81" t="s">
+        <v>596</v>
+      </c>
+      <c r="K1" s="81" t="s">
+        <v>597</v>
+      </c>
+      <c r="L1" s="81" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="33" t="s">
+        <v>191</v>
+      </c>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="48" t="s">
+        <v>599</v>
+      </c>
+      <c r="F2" s="79" t="s">
+        <v>600</v>
+      </c>
+      <c r="G2" s="52" t="s">
+        <v>601</v>
+      </c>
+      <c r="H2" s="52" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="33" t="s">
+        <v>192</v>
+      </c>
+      <c r="B3" s="33"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="33" t="s">
+        <v>603</v>
+      </c>
+      <c r="B4" s="48" t="s">
+        <v>604</v>
+      </c>
+      <c r="C4" s="48" t="s">
+        <v>605</v>
+      </c>
+      <c r="D4" s="48" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="33" t="s">
+        <v>607</v>
+      </c>
+      <c r="B5" s="48" t="s">
+        <v>608</v>
+      </c>
+      <c r="C5" s="33">
+        <v>4045021727</v>
+      </c>
+      <c r="D5" s="33">
+        <v>4049021727</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="33" t="s">
+        <v>609</v>
+      </c>
+      <c r="B6" s="33">
+        <v>4042052348</v>
+      </c>
+      <c r="C6" s="33">
+        <v>4042053248</v>
+      </c>
+      <c r="D6" s="33">
+        <v>4042053299</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="33" t="s">
+        <v>193</v>
+      </c>
+      <c r="B7" s="33"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="33"/>
+      <c r="E7" s="48" t="s">
+        <v>599</v>
+      </c>
+      <c r="F7" s="48" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="33" t="s">
+        <v>194</v>
+      </c>
+      <c r="B8" s="33"/>
+      <c r="C8" s="33"/>
+      <c r="D8" s="33"/>
+      <c r="E8" s="48" t="s">
+        <v>611</v>
+      </c>
+      <c r="F8" s="48" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I9" s="79" t="s">
+        <v>613</v>
+      </c>
+      <c r="J9" s="79" t="s">
+        <v>614</v>
+      </c>
+      <c r="K9" s="79" t="s">
+        <v>615</v>
+      </c>
+      <c r="L9" s="79" t="s">
+        <v>616</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F4"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="65.140625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="24.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="17.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="17.28515625" style="17" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="22.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="6.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" s="31" t="s">
+        <v>497</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="30" t="s">
+        <v>498</v>
+      </c>
+      <c r="E2" s="5"/>
+      <c r="F2" s="2"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="16"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="2"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="D4" s="30" t="s">
+        <v>498</v>
+      </c>
+      <c r="E4" s="5"/>
+      <c r="F4" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
@@ -7464,282 +7704,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="52" width="70.140625" collapsed="true"/>
-    <col min="2" max="4" customWidth="true" style="52" width="70.140625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="52" width="23.85546875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="52" width="21.5703125" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="52" width="23.140625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" style="52" width="25.85546875" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" style="52" width="29.42578125" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" style="52" width="26.0" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" style="52" width="22.5703125" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" style="52" width="29.140625" collapsed="true"/>
-    <col min="13" max="16384" style="52" width="9.140625" collapsed="true"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="s">
-        <v>35</v>
-      </c>
-      <c r="B1" s="29" t="s">
-        <v>588</v>
-      </c>
-      <c r="C1" s="29" t="s">
-        <v>589</v>
-      </c>
-      <c r="D1" s="29" t="s">
-        <v>590</v>
-      </c>
-      <c r="E1" s="29" t="s">
-        <v>591</v>
-      </c>
-      <c r="F1" s="29" t="s">
-        <v>592</v>
-      </c>
-      <c r="G1" s="81" t="s">
-        <v>593</v>
-      </c>
-      <c r="H1" s="81" t="s">
-        <v>594</v>
-      </c>
-      <c r="I1" s="81" t="s">
-        <v>595</v>
-      </c>
-      <c r="J1" s="81" t="s">
-        <v>596</v>
-      </c>
-      <c r="K1" s="81" t="s">
-        <v>597</v>
-      </c>
-      <c r="L1" s="81" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="33" t="s">
-        <v>191</v>
-      </c>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="48" t="s">
-        <v>599</v>
-      </c>
-      <c r="F2" s="79" t="s">
-        <v>600</v>
-      </c>
-      <c r="G2" s="52" t="s">
-        <v>601</v>
-      </c>
-      <c r="H2" s="52" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="33" t="s">
-        <v>192</v>
-      </c>
-      <c r="B3" s="33"/>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="33" t="s">
-        <v>603</v>
-      </c>
-      <c r="B4" s="48" t="s">
-        <v>604</v>
-      </c>
-      <c r="C4" s="48" t="s">
-        <v>605</v>
-      </c>
-      <c r="D4" s="48" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="33" t="s">
-        <v>607</v>
-      </c>
-      <c r="B5" s="48" t="s">
-        <v>608</v>
-      </c>
-      <c r="C5" s="33">
-        <v>4045021727</v>
-      </c>
-      <c r="D5" s="33">
-        <v>4049021727</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="33" t="s">
-        <v>609</v>
-      </c>
-      <c r="B6" s="33">
-        <v>4042052348</v>
-      </c>
-      <c r="C6" s="33">
-        <v>4042053248</v>
-      </c>
-      <c r="D6" s="33">
-        <v>4042053299</v>
-      </c>
-    </row>
-    <row ht="30" r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="33" t="s">
-        <v>193</v>
-      </c>
-      <c r="B7" s="33"/>
-      <c r="C7" s="33"/>
-      <c r="D7" s="33"/>
-      <c r="E7" s="48" t="s">
-        <v>599</v>
-      </c>
-      <c r="F7" s="48" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row ht="30" r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="33" t="s">
-        <v>194</v>
-      </c>
-      <c r="B8" s="33"/>
-      <c r="C8" s="33"/>
-      <c r="D8" s="33"/>
-      <c r="E8" s="48" t="s">
-        <v>611</v>
-      </c>
-      <c r="F8" s="48" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="I9" s="79" t="s">
-        <v>613</v>
-      </c>
-      <c r="J9" s="79" t="s">
-        <v>614</v>
-      </c>
-      <c r="K9" s="79" t="s">
-        <v>615</v>
-      </c>
-      <c r="L9" s="79" t="s">
-        <v>616</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" zoomScaleNormal="100">
-      <selection activeCell="D1" sqref="D1:D2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" customWidth="true" width="65.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="24.140625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="17.28515625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="17" width="17.28515625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="22.140625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="6.42578125" collapsed="true"/>
-  </cols>
-  <sheetData>
-    <row customFormat="1" r="1" s="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="D1" s="31" t="s">
-        <v>497</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="30" t="s">
-        <v>498</v>
-      </c>
-      <c r="E2" s="5"/>
-      <c r="F2" s="2"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="16"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="2"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="B4" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="C4" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="D4" s="30" t="s">
-        <v>498</v>
-      </c>
-      <c r="E4" s="5"/>
-      <c r="F4" s="2"/>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="52" width="47.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="52" width="30.85546875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="52" width="31.140625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="52" width="31.7109375" collapsed="true"/>
-    <col min="5" max="6" customWidth="true" style="52" width="19.85546875" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="52" width="18.7109375" collapsed="true"/>
-    <col min="8" max="16384" style="52" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="47" style="52" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="30.85546875" style="52" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="31.140625" style="52" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="31.7109375" style="52" customWidth="1" collapsed="1"/>
+    <col min="5" max="6" width="19.85546875" style="52" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="18.7109375" style="52" customWidth="1" collapsed="1"/>
+    <col min="8" max="16384" width="9.140625" style="52" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -7807,7 +7778,7 @@
         <v>50</v>
       </c>
     </row>
-    <row ht="30" r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="33" t="s">
         <v>197</v>
       </c>
@@ -7826,7 +7797,7 @@
         <v>50</v>
       </c>
     </row>
-    <row ht="30" r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="33" t="s">
         <v>198</v>
       </c>
@@ -7845,7 +7816,7 @@
         <v>50</v>
       </c>
     </row>
-    <row ht="30" r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="33" t="s">
         <v>199</v>
       </c>
@@ -7862,7 +7833,7 @@
         <v>50</v>
       </c>
     </row>
-    <row ht="30" r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="33" t="s">
         <v>200</v>
       </c>
@@ -7885,7 +7856,7 @@
         <v>50</v>
       </c>
     </row>
-    <row ht="30" r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="33" t="s">
         <v>201</v>
       </c>
@@ -7898,7 +7869,7 @@
         <v>50</v>
       </c>
     </row>
-    <row ht="30" r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="33" t="s">
         <v>202</v>
       </c>
@@ -7952,19 +7923,19 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="B3"/>
-    <hyperlink r:id="rId2" ref="B6"/>
-    <hyperlink r:id="rId3" ref="B4"/>
-    <hyperlink r:id="rId4" ref="B7"/>
+    <hyperlink ref="B3" r:id="rId1"/>
+    <hyperlink ref="B6" r:id="rId2"/>
+    <hyperlink ref="B4" r:id="rId3"/>
+    <hyperlink ref="B7" r:id="rId4"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="9" r:id="rId5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A1:B4"/>
@@ -7972,10 +7943,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="45.5703125" collapsed="true"/>
+    <col min="1" max="1" width="45.5703125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="30" r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>35</v>
       </c>
@@ -8002,14 +7973,14 @@
       <c r="B4" s="4"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
@@ -8017,10 +7988,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="45.5703125" collapsed="true"/>
+    <col min="1" max="1" width="45.5703125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="30" r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>35</v>
       </c>
@@ -8041,14 +8012,14 @@
       <c r="B3" s="4"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1:C2"/>
@@ -8056,12 +8027,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="45.5703125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="24.140625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="17.28515625" collapsed="true"/>
+    <col min="1" max="1" width="45.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="24.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="17.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="30" r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>35</v>
       </c>
@@ -8100,14 +8071,482 @@
       <c r="D3" s="4"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="B3:C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="45.5703125" style="17" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="30.5703125" style="17" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="45.5703125" style="17" customWidth="1" collapsed="1"/>
+    <col min="4" max="16384" width="9.140625" style="17" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="29" t="s">
+        <v>274</v>
+      </c>
+      <c r="C1" s="29" t="s">
+        <v>275</v>
+      </c>
+      <c r="D1" s="31" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="33" t="s">
+        <v>212</v>
+      </c>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="31"/>
+    </row>
+    <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="33" t="s">
+        <v>213</v>
+      </c>
+      <c r="B3" s="39" t="s">
+        <v>383</v>
+      </c>
+      <c r="C3" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="31"/>
+    </row>
+    <row r="4" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="33" t="s">
+        <v>214</v>
+      </c>
+      <c r="B4" s="39" t="s">
+        <v>384</v>
+      </c>
+      <c r="C4" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="31"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="33" t="s">
+        <v>215</v>
+      </c>
+      <c r="B5" s="39" t="s">
+        <v>318</v>
+      </c>
+      <c r="C5" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="31"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1"/>
+    <hyperlink ref="B4" r:id="rId2"/>
+    <hyperlink ref="B5" r:id="rId3"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="45.5703125" style="17" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="30.5703125" style="17" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="45.5703125" style="17" customWidth="1" collapsed="1"/>
+    <col min="4" max="16384" width="9.140625" style="17" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="29" t="s">
+        <v>274</v>
+      </c>
+      <c r="C1" s="29" t="s">
+        <v>275</v>
+      </c>
+      <c r="D1" s="31" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="33" t="s">
+        <v>212</v>
+      </c>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="31"/>
+    </row>
+    <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="33" t="s">
+        <v>213</v>
+      </c>
+      <c r="B3" s="39" t="s">
+        <v>383</v>
+      </c>
+      <c r="C3" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="31"/>
+    </row>
+    <row r="4" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="33" t="s">
+        <v>214</v>
+      </c>
+      <c r="B4" s="39" t="s">
+        <v>384</v>
+      </c>
+      <c r="C4" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="31"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="33" t="s">
+        <v>215</v>
+      </c>
+      <c r="B5" s="39" t="s">
+        <v>318</v>
+      </c>
+      <c r="C5" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="31"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1"/>
+    <hyperlink ref="B4" r:id="rId2"/>
+    <hyperlink ref="B5" r:id="rId3"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="45.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
+        <v>216</v>
+      </c>
+      <c r="B2" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="45.5703125" style="17" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="30.5703125" style="17" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="45.5703125" style="17" customWidth="1" collapsed="1"/>
+    <col min="4" max="16384" width="9.140625" style="17" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="31" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" s="31" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="33" t="s">
+        <v>217</v>
+      </c>
+      <c r="B2" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="37" t="s">
+        <v>466</v>
+      </c>
+      <c r="D2" s="31"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="33" t="s">
+        <v>218</v>
+      </c>
+      <c r="B3" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="48" t="s">
+        <v>467</v>
+      </c>
+      <c r="D3" s="31"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="33" t="s">
+        <v>219</v>
+      </c>
+      <c r="B4" s="14"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="31"/>
+    </row>
+    <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="33" t="s">
+        <v>220</v>
+      </c>
+      <c r="B5" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="30" t="s">
+        <v>468</v>
+      </c>
+      <c r="D5" s="31"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="45.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="26" t="s">
+        <v>335</v>
+      </c>
+      <c r="E1" s="26" t="s">
+        <v>336</v>
+      </c>
+      <c r="F1" s="26" t="s">
+        <v>337</v>
+      </c>
+      <c r="G1" s="26" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="27" t="s">
+        <v>338</v>
+      </c>
+      <c r="B2" s="27" t="s">
+        <v>339</v>
+      </c>
+      <c r="C2" s="27" t="s">
+        <v>340</v>
+      </c>
+      <c r="D2" s="27" t="s">
+        <v>341</v>
+      </c>
+      <c r="E2" s="28" t="s">
+        <v>342</v>
+      </c>
+      <c r="F2" s="27" t="s">
+        <v>343</v>
+      </c>
+      <c r="G2" s="27"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="45.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
+        <v>221</v>
+      </c>
+      <c r="B2" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="65.140625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="24.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="17.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="22.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="6.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="5"/>
+      <c r="E2" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="45.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
+        <v>222</v>
+      </c>
+      <c r="B2" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
@@ -8115,98 +8554,85 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="17" width="45.5703125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="17" width="30.5703125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="17" width="45.5703125" collapsed="true"/>
-    <col min="4" max="16384" style="17" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="33.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="24.140625" style="17" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="17.28515625" style="17" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="8.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="30" r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="s">
+    <row r="1" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="29" t="s">
-        <v>274</v>
-      </c>
-      <c r="C1" s="29" t="s">
-        <v>275</v>
-      </c>
-      <c r="D1" s="31" t="s">
+      <c r="B1" s="41" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" s="41" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" s="41" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="33" t="s">
-        <v>212</v>
-      </c>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="31"/>
-    </row>
-    <row ht="30" r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="33" t="s">
-        <v>213</v>
-      </c>
-      <c r="B3" s="39" t="s">
-        <v>383</v>
-      </c>
-      <c r="C3" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="31"/>
-    </row>
-    <row ht="30" r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="33" t="s">
-        <v>214</v>
-      </c>
-      <c r="B4" s="39" t="s">
-        <v>384</v>
-      </c>
-      <c r="C4" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="31"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="33" t="s">
-        <v>215</v>
-      </c>
-      <c r="B5" s="39" t="s">
-        <v>318</v>
-      </c>
-      <c r="C5" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="31"/>
+      <c r="A2" s="50" t="s">
+        <v>223</v>
+      </c>
+      <c r="B2" s="37" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="41"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="50" t="s">
+        <v>224</v>
+      </c>
+      <c r="B3" s="30" t="s">
+        <v>350</v>
+      </c>
+      <c r="C3" s="30" t="s">
+        <v>351</v>
+      </c>
+      <c r="D3" s="41"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="50" t="s">
+        <v>225</v>
+      </c>
+      <c r="B4" s="51"/>
+      <c r="C4" s="51"/>
+      <c r="D4" s="41"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink r:id="rId1" ref="B3"/>
-    <hyperlink r:id="rId2" ref="B4"/>
-    <hyperlink r:id="rId3" ref="B5"/>
-  </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="9" r:id="rId4"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E5"/>
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:C3"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="17" width="45.5703125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="17" width="30.5703125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="17" width="45.5703125" collapsed="true"/>
-    <col min="4" max="16384" style="17" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="45.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="24" style="52" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="19.28515625" style="52" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="5" width="19.28515625" style="52" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="16" style="52" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="8.85546875" style="52" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="9.5703125" style="52" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="8.85546875" style="52" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="30" r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="29" t="s">
         <v>35</v>
       </c>
@@ -8217,20 +8643,52 @@
         <v>275</v>
       </c>
       <c r="D1" s="31" t="s">
+        <v>497</v>
+      </c>
+      <c r="E1" s="29" t="s">
+        <v>546</v>
+      </c>
+      <c r="F1" s="29" t="s">
+        <v>583</v>
+      </c>
+      <c r="G1" s="29" t="s">
+        <v>584</v>
+      </c>
+      <c r="H1" s="29" t="s">
+        <v>689</v>
+      </c>
+      <c r="I1" s="29" t="s">
+        <v>690</v>
+      </c>
+      <c r="J1" s="31" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="33" t="s">
-        <v>212</v>
-      </c>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="31"/>
-    </row>
-    <row ht="30" r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="33" t="s">
-        <v>213</v>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="12" t="s">
+        <v>226</v>
+      </c>
+      <c r="B2" s="39" t="s">
+        <v>383</v>
+      </c>
+      <c r="C2" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="30" t="s">
+        <v>498</v>
+      </c>
+      <c r="E2" s="33" t="s">
+        <v>547</v>
+      </c>
+      <c r="F2" s="14"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="31"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="12" t="s">
+        <v>227</v>
       </c>
       <c r="B3" s="39" t="s">
         <v>383</v>
@@ -8238,705 +8696,215 @@
       <c r="C3" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="31"/>
-    </row>
-    <row ht="30" r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="33" t="s">
-        <v>214</v>
+      <c r="D3" s="30" t="s">
+        <v>498</v>
+      </c>
+      <c r="E3" s="33" t="s">
+        <v>548</v>
+      </c>
+      <c r="F3" s="14"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="31"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="12" t="s">
+        <v>228</v>
       </c>
       <c r="B4" s="39" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C4" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="31"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="33" t="s">
-        <v>215</v>
+      <c r="D4" s="30" t="s">
+        <v>498</v>
+      </c>
+      <c r="E4" s="33" t="s">
+        <v>549</v>
+      </c>
+      <c r="F4" s="14"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="31"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="12" t="s">
+        <v>229</v>
       </c>
       <c r="B5" s="39" t="s">
-        <v>318</v>
+        <v>383</v>
       </c>
       <c r="C5" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="31"/>
+      <c r="D5" s="30" t="s">
+        <v>498</v>
+      </c>
+      <c r="E5" s="33" t="s">
+        <v>550</v>
+      </c>
+      <c r="F5" s="14"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="31"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="12" t="s">
+        <v>230</v>
+      </c>
+      <c r="B6" s="39" t="s">
+        <v>383</v>
+      </c>
+      <c r="C6" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="30" t="s">
+        <v>498</v>
+      </c>
+      <c r="E6" s="33" t="s">
+        <v>551</v>
+      </c>
+      <c r="F6" s="14"/>
+      <c r="G6" s="33"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="31"/>
+    </row>
+    <row r="7" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="B7" s="39" t="s">
+        <v>383</v>
+      </c>
+      <c r="C7" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="30" t="s">
+        <v>498</v>
+      </c>
+      <c r="E7" s="85" t="s">
+        <v>672</v>
+      </c>
+      <c r="F7" s="85" t="s">
+        <v>672</v>
+      </c>
+      <c r="G7" s="48" t="s">
+        <v>673</v>
+      </c>
+      <c r="H7" s="85"/>
+      <c r="I7" s="85"/>
+      <c r="J7" s="31"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="B8" s="39" t="s">
+        <v>383</v>
+      </c>
+      <c r="C8" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="30" t="s">
+        <v>498</v>
+      </c>
+      <c r="E8" s="33" t="s">
+        <v>552</v>
+      </c>
+      <c r="F8" s="33" t="s">
+        <v>639</v>
+      </c>
+      <c r="G8" s="48" t="s">
+        <v>586</v>
+      </c>
+      <c r="H8" s="85"/>
+      <c r="I8" s="85"/>
+      <c r="J8" s="31"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="12" t="s">
+        <v>232</v>
+      </c>
+      <c r="B9" s="39" t="s">
+        <v>383</v>
+      </c>
+      <c r="C9" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="30" t="s">
+        <v>498</v>
+      </c>
+      <c r="E9" s="33" t="s">
+        <v>553</v>
+      </c>
+      <c r="F9" s="33" t="s">
+        <v>587</v>
+      </c>
+      <c r="G9" s="48" t="s">
+        <v>585</v>
+      </c>
+      <c r="H9" s="85"/>
+      <c r="I9" s="85"/>
+      <c r="J9" s="31"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="B10" s="39" t="s">
+        <v>383</v>
+      </c>
+      <c r="C10" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="30" t="s">
+        <v>498</v>
+      </c>
+      <c r="E10" s="33" t="s">
+        <v>554</v>
+      </c>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="86"/>
+      <c r="I10" s="86"/>
+      <c r="J10" s="31"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="B3"/>
-    <hyperlink r:id="rId2" ref="B4"/>
-    <hyperlink r:id="rId3" ref="B5"/>
+    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="B3" r:id="rId2"/>
+    <hyperlink ref="B4" r:id="rId3"/>
+    <hyperlink ref="B5" r:id="rId4"/>
+    <hyperlink ref="B6" r:id="rId5"/>
+    <hyperlink ref="B7" r:id="rId6"/>
+    <hyperlink ref="B8" r:id="rId7"/>
+    <hyperlink ref="B9" r:id="rId8"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="9" r:id="rId4"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId9"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A1:B2"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="45.5703125" collapsed="true"/>
-  </cols>
-  <sheetData>
-    <row ht="30" r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
-        <v>216</v>
-      </c>
-      <c r="B2" s="4"/>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="17" width="45.5703125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="17" width="30.5703125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="17" width="45.5703125" collapsed="true"/>
-    <col min="4" max="16384" style="17" width="9.140625" collapsed="true"/>
-  </cols>
-  <sheetData>
-    <row ht="30" r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="s">
-        <v>35</v>
-      </c>
-      <c r="B1" s="31" t="s">
-        <v>56</v>
-      </c>
-      <c r="C1" s="31" t="s">
-        <v>36</v>
-      </c>
-      <c r="D1" s="31" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="33" t="s">
-        <v>217</v>
-      </c>
-      <c r="B2" s="33" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" s="37" t="s">
-        <v>466</v>
-      </c>
-      <c r="D2" s="31"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="33" t="s">
-        <v>218</v>
-      </c>
-      <c r="B3" s="33" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="48" t="s">
-        <v>467</v>
-      </c>
-      <c r="D3" s="31"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="33" t="s">
-        <v>219</v>
-      </c>
-      <c r="B4" s="33"/>
-      <c r="C4" s="33"/>
-      <c r="D4" s="31"/>
-    </row>
-    <row ht="30" r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="33" t="s">
-        <v>220</v>
-      </c>
-      <c r="B5" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="30" t="s">
-        <v>468</v>
-      </c>
-      <c r="D5" s="31"/>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="45.5703125" collapsed="true"/>
-  </cols>
-  <sheetData>
-    <row ht="30" r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
-        <v>35</v>
-      </c>
-      <c r="B1" s="26" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="26" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="26" t="s">
-        <v>335</v>
-      </c>
-      <c r="E1" s="26" t="s">
-        <v>336</v>
-      </c>
-      <c r="F1" s="26" t="s">
-        <v>337</v>
-      </c>
-      <c r="G1" s="26" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row ht="45" r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="27" t="s">
-        <v>338</v>
-      </c>
-      <c r="B2" s="27" t="s">
-        <v>339</v>
-      </c>
-      <c r="C2" s="27" t="s">
-        <v>340</v>
-      </c>
-      <c r="D2" s="27" t="s">
-        <v>341</v>
-      </c>
-      <c r="E2" s="28" t="s">
-        <v>342</v>
-      </c>
-      <c r="F2" s="27" t="s">
-        <v>343</v>
-      </c>
-      <c r="G2" s="27"/>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink r:id="rId1" ref="D2"/>
-  </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="9" r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A1:B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="45.5703125" collapsed="true"/>
-  </cols>
-  <sheetData>
-    <row ht="30" r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
-        <v>221</v>
-      </c>
-      <c r="B2" s="4"/>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" customWidth="true" width="65.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="24.140625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="17.28515625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="22.140625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="6.42578125" collapsed="true"/>
-  </cols>
-  <sheetData>
-    <row customFormat="1" r="1" s="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="5"/>
-      <c r="E2" s="2"/>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="45.5703125" collapsed="true"/>
-  </cols>
-  <sheetData>
-    <row ht="30" r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
-        <v>222</v>
-      </c>
-      <c r="B2" s="4"/>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:C3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="33.42578125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="17" width="24.140625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="17" width="17.28515625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="8.7109375" collapsed="true"/>
-  </cols>
-  <sheetData>
-    <row ht="30" r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="40" t="s">
-        <v>35</v>
-      </c>
-      <c r="B1" s="41" t="s">
-        <v>43</v>
-      </c>
-      <c r="C1" s="41" t="s">
-        <v>41</v>
-      </c>
-      <c r="D1" s="41" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="50" t="s">
-        <v>223</v>
-      </c>
-      <c r="B2" s="37" t="s">
-        <v>76</v>
-      </c>
-      <c r="C2" s="38" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="41"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="50" t="s">
-        <v>224</v>
-      </c>
-      <c r="B3" s="30" t="s">
-        <v>350</v>
-      </c>
-      <c r="C3" s="30" t="s">
-        <v>351</v>
-      </c>
-      <c r="D3" s="41"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="50" t="s">
-        <v>225</v>
-      </c>
-      <c r="B4" s="51"/>
-      <c r="C4" s="51"/>
-      <c r="D4" s="41"/>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="45.5703125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="52" width="24.0" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="52" width="19.28515625" collapsed="true"/>
-    <col min="4" max="5" customWidth="true" style="52" width="19.28515625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" style="52" width="16.0" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" style="52" width="8.85546875" collapsed="true"/>
-    <col min="8" max="9" customWidth="true" style="52" width="8.85546875" collapsed="true"/>
-  </cols>
-  <sheetData>
-    <row ht="30" r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B1" s="29" t="s">
-        <v>274</v>
-      </c>
-      <c r="C1" s="29" t="s">
-        <v>275</v>
-      </c>
-      <c r="D1" s="31" t="s">
-        <v>497</v>
-      </c>
-      <c r="E1" s="29" t="s">
-        <v>546</v>
-      </c>
-      <c r="F1" s="29" t="s">
-        <v>583</v>
-      </c>
-      <c r="G1" s="29" t="s">
-        <v>584</v>
-      </c>
-      <c r="H1" s="29" t="s">
-        <v>689</v>
-      </c>
-      <c r="I1" s="29" t="s">
-        <v>690</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
-        <v>226</v>
-      </c>
-      <c r="B2" s="39" t="s">
-        <v>383</v>
-      </c>
-      <c r="C2" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="30" t="s">
-        <v>498</v>
-      </c>
-      <c r="E2" s="33" t="s">
-        <v>547</v>
-      </c>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
-      <c r="I2" s="33"/>
-      <c r="J2" s="4"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
-        <v>227</v>
-      </c>
-      <c r="B3" s="39" t="s">
-        <v>383</v>
-      </c>
-      <c r="C3" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="30" t="s">
-        <v>498</v>
-      </c>
-      <c r="E3" s="33" t="s">
-        <v>548</v>
-      </c>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
-      <c r="H3" s="33"/>
-      <c r="I3" s="33"/>
-      <c r="J3" s="4"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
-        <v>228</v>
-      </c>
-      <c r="B4" s="39" t="s">
-        <v>383</v>
-      </c>
-      <c r="C4" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="30" t="s">
-        <v>498</v>
-      </c>
-      <c r="E4" s="33" t="s">
-        <v>549</v>
-      </c>
-      <c r="F4" s="33"/>
-      <c r="G4" s="33"/>
-      <c r="H4" s="33"/>
-      <c r="I4" s="33"/>
-      <c r="J4" s="4"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="s">
-        <v>229</v>
-      </c>
-      <c r="B5" s="39" t="s">
-        <v>383</v>
-      </c>
-      <c r="C5" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="30" t="s">
-        <v>498</v>
-      </c>
-      <c r="E5" s="33" t="s">
-        <v>550</v>
-      </c>
-      <c r="F5" s="33"/>
-      <c r="G5" s="33"/>
-      <c r="H5" s="33"/>
-      <c r="I5" s="33"/>
-      <c r="J5" s="4"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="12" t="s">
-        <v>230</v>
-      </c>
-      <c r="B6" s="39" t="s">
-        <v>383</v>
-      </c>
-      <c r="C6" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="30" t="s">
-        <v>498</v>
-      </c>
-      <c r="E6" s="33" t="s">
-        <v>551</v>
-      </c>
-      <c r="F6" s="33"/>
-      <c r="G6" s="33"/>
-      <c r="H6" s="33"/>
-      <c r="I6" s="33"/>
-      <c r="J6" s="4"/>
-    </row>
-    <row ht="30" r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="12" t="s">
-        <v>231</v>
-      </c>
-      <c r="B7" s="39" t="s">
-        <v>383</v>
-      </c>
-      <c r="C7" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="30" t="s">
-        <v>498</v>
-      </c>
-      <c r="E7" s="48" t="s">
-        <v>672</v>
-      </c>
-      <c r="F7" s="48" t="s">
-        <v>672</v>
-      </c>
-      <c r="G7" s="48" t="s">
-        <v>673</v>
-      </c>
-      <c r="H7" s="48"/>
-      <c r="I7" s="48"/>
-      <c r="J7" s="4"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="12" t="s">
-        <v>132</v>
-      </c>
-      <c r="B8" s="39" t="s">
-        <v>383</v>
-      </c>
-      <c r="C8" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" s="30" t="s">
-        <v>498</v>
-      </c>
-      <c r="E8" s="33" t="s">
-        <v>552</v>
-      </c>
-      <c r="F8" s="33" t="s">
-        <v>639</v>
-      </c>
-      <c r="G8" s="48" t="s">
-        <v>586</v>
-      </c>
-      <c r="H8" s="48"/>
-      <c r="I8" s="48"/>
-      <c r="J8" s="4"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="12" t="s">
-        <v>232</v>
-      </c>
-      <c r="B9" s="39" t="s">
-        <v>383</v>
-      </c>
-      <c r="C9" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" s="30" t="s">
-        <v>498</v>
-      </c>
-      <c r="E9" s="33" t="s">
-        <v>553</v>
-      </c>
-      <c r="F9" s="33" t="s">
-        <v>587</v>
-      </c>
-      <c r="G9" s="48" t="s">
-        <v>585</v>
-      </c>
-      <c r="H9" s="48"/>
-      <c r="I9" s="48"/>
-      <c r="J9" s="4"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="12" t="s">
-        <v>133</v>
-      </c>
-      <c r="B10" s="39" t="s">
-        <v>383</v>
-      </c>
-      <c r="C10" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" s="30" t="s">
-        <v>498</v>
-      </c>
-      <c r="E10" s="33" t="s">
-        <v>554</v>
-      </c>
-      <c r="F10" s="33"/>
-      <c r="G10" s="33"/>
-      <c r="H10" t="s">
-        <v>709</v>
-      </c>
-      <c r="I10" t="s">
-        <v>710</v>
-      </c>
-      <c r="J10" s="4"/>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink r:id="rId1" ref="B2"/>
-    <hyperlink r:id="rId2" ref="B3"/>
-    <hyperlink r:id="rId3" ref="B4"/>
-    <hyperlink r:id="rId4" ref="B5"/>
-    <hyperlink r:id="rId5" ref="B6"/>
-    <hyperlink r:id="rId6" ref="B7"/>
-    <hyperlink r:id="rId7" ref="B8"/>
-    <hyperlink r:id="rId8" ref="B9"/>
-  </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="9" r:id="rId9"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" customWidth="true" width="65.28515625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="17" width="24.140625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="17" width="19.28515625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="17" width="45.5703125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="20.0" collapsed="true"/>
+    <col min="1" max="1" width="65.28515625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="24.140625" style="17" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="19.28515625" style="17" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="9.42578125" style="17" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="20" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -9033,20 +9001,20 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="B2"/>
-    <hyperlink r:id="rId2" ref="B3"/>
-    <hyperlink r:id="rId3" ref="B4"/>
-    <hyperlink r:id="rId4" ref="B5"/>
-    <hyperlink r:id="rId5" ref="B6"/>
+    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="B3" r:id="rId2"/>
+    <hyperlink ref="B4" r:id="rId3"/>
+    <hyperlink ref="B5" r:id="rId4"/>
+    <hyperlink ref="B6" r:id="rId5"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="9" r:id="rId6"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
@@ -9054,12 +9022,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="17" width="65.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="17" width="24.140625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="17" width="17.28515625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" style="17" width="22.140625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="17" width="6.42578125" collapsed="true"/>
-    <col min="6" max="16384" style="17" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="65.140625" style="17" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="24.140625" style="17" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="17.28515625" style="17" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="22.140625" style="17" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="6.42578125" style="17" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="16384" width="9.140625" style="17" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -9085,7 +9053,7 @@
         <v>51</v>
       </c>
     </row>
-    <row ht="30" r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
         <v>65</v>
       </c>
@@ -9113,7 +9081,7 @@
       </c>
       <c r="G3" s="34"/>
     </row>
-    <row ht="30" r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>70</v>
       </c>
@@ -9138,31 +9106,31 @@
       <c r="G5" s="34"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AE12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AD12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="52" width="82.42578125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="52" width="24.140625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="52" width="17.28515625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" style="52" width="22.140625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="52" width="23.7109375" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" style="52" width="14.85546875" collapsed="true"/>
-    <col min="7" max="16384" style="52" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="82.42578125" style="52" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="24.140625" style="52" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="17.28515625" style="52" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="22.140625" style="52" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="23.7109375" style="52" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="14.85546875" style="52" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="16384" width="9.140625" style="52" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" ht="45" r="1" s="1" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:30" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="34" t="s">
         <v>35</v>
       </c>
@@ -9261,7 +9229,7 @@
       <c r="B2" s="13" t="s">
         <v>276</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="33" t="s">
         <v>13</v>
       </c>
       <c r="D2" s="20"/>
@@ -9566,7 +9534,7 @@
       <c r="AC8" s="20"/>
       <c r="AD8" s="29"/>
     </row>
-    <row ht="30" r="9" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:30" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="18" t="s">
         <v>84</v>
       </c>
@@ -9604,7 +9572,7 @@
       <c r="AC9" s="20"/>
       <c r="AD9" s="29"/>
     </row>
-    <row ht="30" r="10" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:30" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="18" t="s">
         <v>85</v>
       </c>
@@ -9732,22 +9700,22 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="Hello@gmailcom" r:id="rId1" ref="F11"/>
-    <hyperlink r:id="rId2" ref="G11"/>
-    <hyperlink r:id="rId3" ref="B3"/>
-    <hyperlink r:id="rId4" ref="B8"/>
-    <hyperlink r:id="rId5" ref="B4"/>
-    <hyperlink r:id="rId6" ref="B10"/>
-    <hyperlink r:id="rId7" ref="B2"/>
+    <hyperlink ref="F11" r:id="rId1" display="Hello@gmailcom"/>
+    <hyperlink ref="G11" r:id="rId2"/>
+    <hyperlink ref="B3" r:id="rId3"/>
+    <hyperlink ref="B8" r:id="rId4"/>
+    <hyperlink ref="B4" r:id="rId5"/>
+    <hyperlink ref="B10" r:id="rId6"/>
+    <hyperlink ref="B2" r:id="rId7"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="9" r:id="rId8"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId8"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2:C2"/>
@@ -9755,14 +9723,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="65.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="24.140625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="17.28515625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="22.140625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="10.42578125" collapsed="true"/>
+    <col min="1" max="1" width="65.140625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="24.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="17.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="22.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="10.42578125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" ht="60" r="1" s="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A1" s="29" t="s">
         <v>35</v>
       </c>
@@ -9806,7 +9774,7 @@
         <v>51</v>
       </c>
     </row>
-    <row customFormat="1" r="2" s="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="33" t="s">
         <v>86</v>
       </c>
@@ -9836,7 +9804,7 @@
       </c>
       <c r="N2" s="29"/>
     </row>
-    <row customFormat="1" r="3" s="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="33" t="s">
         <v>87</v>
       </c>
@@ -9866,7 +9834,7 @@
       </c>
       <c r="N3" s="29"/>
     </row>
-    <row customFormat="1" r="4" s="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="33" t="s">
         <v>353</v>
       </c>
@@ -9910,18 +9878,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="D2"/>
-    <hyperlink r:id="rId2" ref="D3"/>
-    <hyperlink r:id="rId3" ref="D4"/>
+    <hyperlink ref="D2" r:id="rId1"/>
+    <hyperlink ref="D3" r:id="rId2"/>
+    <hyperlink ref="D4" r:id="rId3"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="9" r:id="rId4"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
@@ -9929,19 +9897,19 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="17" width="78.5703125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="17" width="24.140625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="17" width="17.28515625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" style="17" width="22.140625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="17" width="18.28515625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="17" width="16.42578125" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" style="17" width="10.42578125" collapsed="true"/>
-    <col min="8" max="9" style="17" width="9.140625" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" style="17" width="28.7109375" collapsed="true"/>
-    <col min="11" max="16384" style="17" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="78.5703125" style="17" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="24.140625" style="17" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="17.28515625" style="17" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="22.140625" style="17" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="18.28515625" style="17" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="16.42578125" style="17" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="10.42578125" style="17" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="9" width="9.140625" style="17" collapsed="1"/>
+    <col min="10" max="10" width="28.7109375" style="17" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="16384" width="9.140625" style="17" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" r="1" s="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="29" t="s">
         <v>35</v>
       </c>
@@ -10017,7 +9985,7 @@
       <c r="M2" s="33"/>
       <c r="N2" s="29"/>
     </row>
-    <row ht="30" r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="33" t="s">
         <v>448</v>
       </c>
@@ -10110,14 +10078,14 @@
       <c r="N5" s="32"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AC5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AB5"/>
   <sheetViews>
     <sheetView topLeftCell="H1" workbookViewId="0">
       <selection activeCell="Q1" sqref="Q1"/>
@@ -10125,34 +10093,34 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="47" width="59.7109375" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="47" width="14.28515625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="47" width="17.28515625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="47" width="17.28515625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="47" width="10.0" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" style="47" width="11.7109375" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" style="47" width="9.7109375" collapsed="true"/>
-    <col min="8" max="10" style="47" width="9.140625" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" style="47" width="12.42578125" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" style="47" width="12.42578125" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" style="47" width="25.28515625" collapsed="true"/>
-    <col min="14" max="14" style="47" width="9.140625" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" style="47" width="11.42578125" collapsed="true"/>
-    <col min="16" max="16" style="47" width="9.140625" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" style="47" width="11.140625" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" style="47" width="8.5703125" collapsed="true"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" style="47" width="20.28515625" collapsed="true"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" style="47" width="31.28515625" collapsed="true"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" style="47" width="26.0" collapsed="true"/>
-    <col min="22" max="23" bestFit="true" customWidth="true" style="47" width="10.42578125" collapsed="true"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" style="47" width="5.0" collapsed="true"/>
-    <col min="25" max="25" style="47" width="9.140625" collapsed="true"/>
-    <col min="26" max="26" customWidth="true" style="47" width="13.7109375" collapsed="true"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" style="47" width="24.5703125" collapsed="true"/>
-    <col min="28" max="16384" style="47" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="59.7109375" style="47" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="14.28515625" style="47" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="17.28515625" style="47" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="17.28515625" style="47" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="10" style="47" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="11.7109375" style="47" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="9.7109375" style="47" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="10" width="9.140625" style="47" collapsed="1"/>
+    <col min="11" max="11" width="12.42578125" style="47" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="12.42578125" style="47" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="25.28515625" style="47" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="9.140625" style="47" collapsed="1"/>
+    <col min="15" max="15" width="11.42578125" style="47" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="9.140625" style="47" collapsed="1"/>
+    <col min="17" max="17" width="11.140625" style="47" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="8.5703125" style="47" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="20.28515625" style="47" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="31.28515625" style="47" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="26" style="47" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="23" width="10.42578125" style="47" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="5" style="47" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="9.140625" style="47" collapsed="1"/>
+    <col min="26" max="26" width="13.7109375" style="47" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="24.5703125" style="47" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="28" max="16384" width="9.140625" style="47" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" ht="45" r="1" s="46" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:28" s="46" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="40" t="s">
         <v>35</v>
       </c>
@@ -10548,16 +10516,16 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="T5"/>
+    <hyperlink ref="T5" r:id="rId1"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Y6"/>
   <sheetViews>
     <sheetView topLeftCell="G1" workbookViewId="0">
       <selection activeCell="R6" sqref="R6"/>
@@ -10565,21 +10533,21 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="53.28515625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="14.28515625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="17.28515625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="10.0" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="10.140625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="9.7109375" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="11.42578125" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="10.85546875" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="22.28515625" collapsed="true"/>
-    <col min="19" max="20" bestFit="true" customWidth="true" width="10.42578125" collapsed="true"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" width="8.7109375" collapsed="true"/>
+    <col min="1" max="1" width="53.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="17.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="9.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="11.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="10.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="22.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="20" width="10.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="8.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" ht="60" r="1" s="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A1" s="29" t="s">
         <v>35</v>
       </c>
@@ -10900,7 +10868,7 @@
       <c r="X5" s="31"/>
       <c r="Y5" s="31"/>
     </row>
-    <row customFormat="1" r="6" s="17" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="32" t="s">
         <v>503</v>
       </c>
@@ -10971,12 +10939,12 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="scqat1@mailinator.com" r:id="rId1" ref="R2"/>
-    <hyperlink display="scqat1@mailinator.com" r:id="rId2" ref="R4"/>
-    <hyperlink display="scqat1@mailinator.com" r:id="rId3" ref="R5"/>
-    <hyperlink display="scqat1@mailinator.com" r:id="rId4" ref="R6"/>
+    <hyperlink ref="R2" r:id="rId1" display="scqat1@mailinator.com"/>
+    <hyperlink ref="R4" r:id="rId2" display="scqat1@mailinator.com"/>
+    <hyperlink ref="R5" r:id="rId3" display="scqat1@mailinator.com"/>
+    <hyperlink ref="R6" r:id="rId4" display="scqat1@mailinator.com"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="9" r:id="rId5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>
--- a/DigitalWebsites/TestData/Global_TestData_Sheet.xlsx
+++ b/DigitalWebsites/TestData/Global_TestData_Sheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14730" windowHeight="5985" tabRatio="753" firstSheet="13" activeTab="14"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14730" windowHeight="5985" tabRatio="753"/>
   </bookViews>
   <sheets>
     <sheet name="Global" sheetId="4" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1677" uniqueCount="707">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1666" uniqueCount="708">
   <si>
     <t>32256</t>
   </si>
@@ -2175,6 +2175,9 @@
   </si>
   <si>
     <t>5035019987</t>
+  </si>
+  <si>
+    <t>TC001_Rewards_Page_for_Logged_Out_users</t>
   </si>
 </sst>
 </file>
@@ -2758,8 +2761,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:D2"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25:D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3216,10 +3219,10 @@
         <v>256</v>
       </c>
       <c r="C20" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D20" s="8" t="s">
         <v>28</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>19</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>28</v>
@@ -3331,10 +3334,10 @@
         <v>261</v>
       </c>
       <c r="C25" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D25" s="8" t="s">
         <v>28</v>
-      </c>
-      <c r="D25" s="8" t="s">
-        <v>19</v>
       </c>
       <c r="E25" s="7" t="s">
         <v>28</v>
@@ -6272,7 +6275,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -8081,12 +8084,12 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="B3:C3"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="45.5703125" style="17" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="61.28515625" style="17" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="30.5703125" style="17" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="45.5703125" style="17" customWidth="1" collapsed="1"/>
     <col min="4" max="16384" width="9.140625" style="17" collapsed="1"/>
@@ -8163,86 +8166,37 @@
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:C3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="45.5703125" style="17" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="30.5703125" style="17" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="45.5703125" style="17" customWidth="1" collapsed="1"/>
-    <col min="4" max="16384" width="9.140625" style="17" collapsed="1"/>
+    <col min="1" max="1" width="53.7109375" style="17" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="9.140625" style="17" collapsed="1"/>
+    <col min="3" max="4" width="9.140625" style="17"/>
+    <col min="5" max="16384" width="9.140625" style="17" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="29" t="s">
-        <v>274</v>
-      </c>
-      <c r="C1" s="29" t="s">
-        <v>275</v>
-      </c>
-      <c r="D1" s="31" t="s">
+      <c r="B1" s="31" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="33" t="s">
-        <v>212</v>
-      </c>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="31"/>
-    </row>
-    <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="33" t="s">
-        <v>213</v>
-      </c>
-      <c r="B3" s="39" t="s">
-        <v>383</v>
-      </c>
-      <c r="C3" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="31"/>
-    </row>
-    <row r="4" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="33" t="s">
-        <v>214</v>
-      </c>
-      <c r="B4" s="39" t="s">
-        <v>384</v>
-      </c>
-      <c r="C4" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="31"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="33" t="s">
-        <v>215</v>
-      </c>
-      <c r="B5" s="39" t="s">
-        <v>318</v>
-      </c>
-      <c r="C5" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="31"/>
+        <v>707</v>
+      </c>
+      <c r="B2" s="31"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1"/>
-    <hyperlink ref="B4" r:id="rId2"/>
-    <hyperlink ref="B5" r:id="rId3"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -9116,7 +9070,7 @@
   <dimension ref="A1:AD12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9226,8 +9180,8 @@
       <c r="A2" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="B2" s="13" t="s">
-        <v>276</v>
+      <c r="B2" s="19" t="s">
+        <v>499</v>
       </c>
       <c r="C2" s="33" t="s">
         <v>13</v>

--- a/DigitalWebsites/TestData/Global_TestData_Sheet.xlsx
+++ b/DigitalWebsites/TestData/Global_TestData_Sheet.xlsx
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1666" uniqueCount="708">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1674" uniqueCount="708">
   <si>
     <t>32256</t>
   </si>
@@ -2762,7 +2762,7 @@
   <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25:D25"/>
+      <selection activeCell="C20" sqref="C20:D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2880,13 +2880,13 @@
         <v>19</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" s="9" t="s">
         <v>28</v>
-      </c>
-      <c r="F5" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="G5" s="9" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -3219,10 +3219,10 @@
         <v>256</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>28</v>
@@ -7702,7 +7702,7 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="B9" sqref="B9:F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7863,11 +7863,21 @@
       <c r="A8" s="33" t="s">
         <v>201</v>
       </c>
-      <c r="B8" s="33"/>
-      <c r="C8" s="33"/>
-      <c r="D8" s="33"/>
-      <c r="E8" s="33"/>
-      <c r="F8" s="33"/>
+      <c r="B8" s="36" t="s">
+        <v>499</v>
+      </c>
+      <c r="C8" s="53" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="30" t="s">
+        <v>501</v>
+      </c>
+      <c r="E8" s="53">
+        <v>32246</v>
+      </c>
+      <c r="F8" s="53" t="s">
+        <v>500</v>
+      </c>
       <c r="G8" s="31" t="s">
         <v>50</v>
       </c>
@@ -7876,11 +7886,21 @@
       <c r="A9" s="33" t="s">
         <v>202</v>
       </c>
-      <c r="B9" s="33"/>
-      <c r="C9" s="33"/>
-      <c r="D9" s="33"/>
-      <c r="E9" s="33"/>
-      <c r="F9" s="33"/>
+      <c r="B9" s="36" t="s">
+        <v>499</v>
+      </c>
+      <c r="C9" s="53" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="30" t="s">
+        <v>501</v>
+      </c>
+      <c r="E9" s="53">
+        <v>32246</v>
+      </c>
+      <c r="F9" s="53" t="s">
+        <v>500</v>
+      </c>
       <c r="G9" s="31" t="s">
         <v>50</v>
       </c>
@@ -7930,9 +7950,11 @@
     <hyperlink ref="B6" r:id="rId2"/>
     <hyperlink ref="B4" r:id="rId3"/>
     <hyperlink ref="B7" r:id="rId4"/>
+    <hyperlink ref="B8" r:id="rId5"/>
+    <hyperlink ref="B9" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
 </worksheet>
 </file>
 
